--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVE\Desktop\simple-budget\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DC75F-1B6B-4B53-A844-C7564B3EECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="596" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -25,9 +31,9 @@
     <definedName name="Budżet7">#REF!</definedName>
     <definedName name="stawka">III!$H$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,13 +50,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+      <extLst>
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="208">
   <si>
     <t>data</t>
   </si>
@@ -684,17 +690,23 @@
   </si>
   <si>
     <t>sbsoftware</t>
+  </si>
+  <si>
+    <t>serum</t>
+  </si>
+  <si>
+    <t>suplementy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,23 +929,32 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="186">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -954,15 +975,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -984,31 +996,43 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2476,6 +2500,15 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2586,6 +2619,34 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -2637,15 +2698,6 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2849,16 +2901,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -3103,16 +3145,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3302,16 +3334,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3524,16 +3546,6 @@
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3746,16 +3758,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3947,16 +3949,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3986,46 +3978,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="0,00 zł"/>
-    <tableColumn id="5" name="kwota" dataDxfId="186"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0,00 zł"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="kwota" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="139"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="kwota" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+      <totalsRowFormula>SUM(Budżet4[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet4[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet4[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4033,14 +4025,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="132" tableBorderDxfId="131">
-  <autoFilter ref="A1:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="134" tableBorderDxfId="133">
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="razy" dataDxfId="130"/>
-    <tableColumn id="2" name="kwota" dataDxfId="129"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="128"/>
-    <tableColumn id="4" name="na co" dataDxfId="127"/>
-    <tableColumn id="5" name="przyjemności" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="razy" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="kwota" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="kategoria" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="na co" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="przyjemności" dataDxfId="128">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4049,15 +4041,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" tableBorderDxfId="122">
-  <autoFilter ref="A1:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="razy" dataDxfId="121"/>
-    <tableColumn id="2" name="kwota" dataDxfId="120"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="119"/>
-    <tableColumn id="4" name="na co" dataDxfId="118"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="117"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="razy" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="kwota" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="kategoria" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="na co" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="gdzie" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="przyjemności" dataDxfId="119">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4066,33 +4058,33 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
-  <autoFilter ref="H1:K5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
+  <autoFilter ref="H1:K5" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="115"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="kwota" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
-  <autoFilter ref="M1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
+  <autoFilter ref="M1:P10" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+      <totalsRowFormula>SUM(Budżet5[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet5[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet5[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4100,27 +4092,27 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="107"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="kwota" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E41" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105" tableBorderDxfId="104">
-  <autoFilter ref="A1:E41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" tableBorderDxfId="108">
+  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="103"/>
-    <tableColumn id="2" name="kwota" dataDxfId="102"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="101"/>
-    <tableColumn id="4" name="na co" dataDxfId="100"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="data" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="kwota" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="kategoria" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="na co" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="przyjemności" dataDxfId="103">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4129,51 +4121,49 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
-  <autoFilter ref="L1:P10">
-    <filterColumn colId="4"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
+  <autoFilter ref="L1:P10" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(Budżet6[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet6[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="3">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet6[pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kolumna1" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="91"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="185" tableBorderDxfId="184">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="184" tableBorderDxfId="183">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="183"/>
-    <tableColumn id="2" name="kwota" dataDxfId="182"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="181"/>
-    <tableColumn id="4" name="na co" dataDxfId="180"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="179">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="data" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="kwota" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="kategoria" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="na co" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="przyjemności" dataDxfId="178">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4182,14 +4172,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E14" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
-  <autoFilter ref="A1:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E16" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="9"/>
-    <tableColumn id="2" name="kwota" dataDxfId="87"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="86"/>
-    <tableColumn id="4" name="na co" dataDxfId="85"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="90">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4198,20 +4188,20 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Budżet71[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet71[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="0">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet71[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4219,144 +4209,144 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Przychody8" displayName="Przychody8" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="83"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="79"/>
-    <tableColumn id="2" name="kwota" dataDxfId="78"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="77"/>
-    <tableColumn id="4" name="na co" dataDxfId="76"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="75"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="data" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="gdzie" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="77">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="stałe" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Przychody9" displayName="Przychody9" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="72"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="kwota" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="68"/>
-    <tableColumn id="2" name="kwota" dataDxfId="67"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="66"/>
-    <tableColumn id="4" name="na co" dataDxfId="65"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="64"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="kwota" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="kategoria" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="na co" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="gdzie" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="przyjemności" dataDxfId="66">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="stałe" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="61"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="kwota" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="57"/>
-    <tableColumn id="2" name="kwota" dataDxfId="56"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="55"/>
-    <tableColumn id="4" name="na co" dataDxfId="54"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="53"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="data" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="kwota" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="kategoria" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="na co" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="gdzie" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="przyjemności" dataDxfId="55">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="stałe" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="50"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="46"/>
-    <tableColumn id="2" name="kwota" dataDxfId="45"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="44"/>
-    <tableColumn id="4" name="na co" dataDxfId="43"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="42"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="44">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="177">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
+      <totalsRowFormula>SUM(Budżet1[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet1[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet1[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4364,63 +4354,63 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="39"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="35"/>
-    <tableColumn id="2" name="kwota" dataDxfId="34"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="33"/>
-    <tableColumn id="4" name="na co" dataDxfId="32"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="31"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="33">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="miesiąc"/>
-    <tableColumn id="5" name="Dochód" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="miesiąc"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="Dochód" dataDxfId="31">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Wydatki" dataDxfId="30">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="26" dataCellStyle="Procentowy">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="Wydatki konieczne" dataDxfId="29" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="25" dataCellStyle="Procentowy">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1F00-000009000000}" name="Wydatki konieczne [%]" dataDxfId="28" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="24" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Wydatki przyjemności" dataDxfId="27" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="23" dataCellStyle="Procentowy">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1F00-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="26" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Oszczędności" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Oszczędności" dataDxfId="25">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="21" dataCellStyle="Procentowy">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Oszczędności [%]" dataDxfId="24" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4429,32 +4419,32 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A15:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A15:I16" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="okres" dataDxfId="18"/>
-    <tableColumn id="2" name="Dochód" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="okres" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Dochód" dataDxfId="20">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wydatki" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Wydatki" dataDxfId="19">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="15" dataCellStyle="Procentowy">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Wydatki konieczne" dataDxfId="18" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="14" dataCellStyle="Procentowy">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Wydatki konieczne [%]" dataDxfId="17" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="Wydatki przyjemności" dataDxfId="16">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="12" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="15" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Oszczędności" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2000-000008000000}" name="Oszczędności" dataDxfId="14">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2000-000009000000}" name="Oszczędności [%]" dataDxfId="13">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4463,47 +4453,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
-  <autoFilter ref="A1:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
+  <autoFilter ref="A1:E33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="168"/>
-    <tableColumn id="2" name="kwota" dataDxfId="167"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="166"/>
-    <tableColumn id="4" name="na co" dataDxfId="165"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="164"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="data" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="kwota" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="kategoria" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="na co" dataDxfId="165"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="przyjemności" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="163"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="kwota" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
+      <totalsRowFormula>SUM(Budżet2[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet2[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet2[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4511,29 +4501,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="155">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="kwota" dataDxfId="156">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153" tableBorderDxfId="152">
-  <autoFilter ref="A1:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" tableBorderDxfId="153">
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="151"/>
-    <tableColumn id="2" name="kwota" dataDxfId="150"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="149"/>
-    <tableColumn id="4" name="na co" dataDxfId="148"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="147">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="data" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="kwota" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="kategoria" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="na co" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="przyjemności" dataDxfId="148">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4542,20 +4532,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+      <totalsRowFormula>SUM(Budżet3[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet3[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet3[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4817,14 +4807,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4834,25 +4824,25 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -4916,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="L3" t="s">
@@ -4934,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -4950,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>56</v>
       </c>
@@ -4966,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
         <v>41</v>
       </c>
@@ -4982,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L7" t="s">
         <v>42</v>
       </c>
@@ -4998,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>45</v>
       </c>
@@ -5014,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>14</v>
       </c>
@@ -5046,24 +5036,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet1[budżet])</f>
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet1[wydatki])</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <f>SUM(Budżet1[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>49</v>
       </c>
@@ -5074,7 +5064,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="187" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFE57F97"/>
   </sheetPr>
@@ -5099,16 +5089,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5154,7 +5144,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5175,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC986DE"/>
   </sheetPr>
@@ -5185,9 +5175,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5222,7 +5212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5233,7 +5223,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5254,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF948CE0"/>
   </sheetPr>
@@ -5264,9 +5254,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5312,7 +5302,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5333,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5343,20 +5333,20 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5385,7 +5375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5405,9 +5395,9 @@
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki1[kwota],Wydatki1[przyjemności], 0))</f>
-        <v>#NAME?</v>
+      <c r="F2" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki1[kwota],Wydatki1[przyjemności], 0))</f>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
@@ -5422,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -5459,7 +5449,7 @@
         <v>0.338629066780822</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5473,19 +5463,19 @@
       </c>
       <c r="D4" s="5" cm="1">
         <f t="array" ref="D4">SUM(_xlfn._xlws.FILTER(Wydatki3[kwota],NOT(Wydatki3[przyjemności]),0))</f>
-        <v>10564.03</v>
+        <v>10629.2</v>
       </c>
       <c r="E4" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0.95298764024367677</v>
-      </c>
-      <c r="F4" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki3[kwota],Wydatki3[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>0.95886666600512205</v>
+      </c>
+      <c r="F4" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki3[kwota],Wydatki3[przyjemności],0))</f>
+        <v>455.97</v>
+      </c>
+      <c r="G4" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>4.1133333994877834E-2</v>
       </c>
       <c r="H4" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
@@ -5499,7 +5489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5511,21 +5501,21 @@
         <f>SUM(Wydatki4[kwota])</f>
         <v>7456.3799999999992</v>
       </c>
-      <c r="D5" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki4[kwota],NOT(Wydatki4[przyjemności]),0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki4[kwota],Wydatki4[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+      <c r="D5" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki4[kwota],NOT(Wydatki4[przyjemności]),0))</f>
+        <v>6542.829999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.87748076144187925</v>
+      </c>
+      <c r="F5" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki4[kwota],Wydatki4[przyjemności],0))</f>
+        <v>913.55</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.1225192385581207</v>
       </c>
       <c r="H5" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
@@ -5536,7 +5526,7 @@
         <v>0.28509230717603812</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5548,21 +5538,21 @@
         <f>SUM(Wydatki5[kwota])</f>
         <v>7305.9199999999992</v>
       </c>
-      <c r="D6" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki5[kwota],NOT(Wydatki5[przyjemności]),0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki5[kwota],Wydatki5[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+      <c r="D6" s="5" cm="1">
+        <f t="array" ref="D6">SUM(_xlfn._xlws.FILTER(Wydatki5[kwota],NOT(Wydatki5[przyjemności]),0))</f>
+        <v>5632.0300000000007</v>
+      </c>
+      <c r="E6" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.77088580219876501</v>
+      </c>
+      <c r="F6" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki5[kwota],Wydatki5[przyjemności],0))</f>
+        <v>1673.89</v>
+      </c>
+      <c r="G6" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.22911419780123521</v>
       </c>
       <c r="H6" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
@@ -5573,7 +5563,7 @@
         <v>0.14568628826679766</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -5583,37 +5573,37 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(Wydatki6[kwota])</f>
-        <v>9504.4699999999993</v>
-      </c>
-      <c r="D7" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki6[kwota],NOT(Wydatki6[przyjemności]),0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki6[kwota],Wydatki6[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>9730.6799999999985</v>
+      </c>
+      <c r="D7" s="5" cm="1">
+        <f t="array" ref="D7">SUM(_xlfn._xlws.FILTER(Wydatki6[kwota],NOT(Wydatki6[przyjemności]),0))</f>
+        <v>9209.0099999999984</v>
+      </c>
+      <c r="E7" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.94638915265942358</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki6[kwota],Wydatki6[przyjemności],0))</f>
+        <v>521.66999999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>5.361084734057641E-2</v>
       </c>
       <c r="H7" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>509.48000000000138</v>
+        <v>283.27000000000226</v>
       </c>
       <c r="I7" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>5.087702654796572E-2</v>
+        <v>2.8287538883258079E-2</v>
       </c>
       <c r="K7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -5623,34 +5613,34 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(Wydatki7[kwota])</f>
-        <v>4775.8499999999995</v>
-      </c>
-      <c r="D8" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>5064.6399999999994</v>
+      </c>
+      <c r="D8" s="5" cm="1">
+        <f t="array" ref="D8">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
+        <v>5064.6399999999994</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>4898.1000000000013</v>
+        <v>4609.3100000000013</v>
       </c>
       <c r="I8" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.50631851518769488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.47646617979212225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5687,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5761,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5798,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5835,13 +5825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
@@ -5870,7 +5860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -5880,75 +5870,75 @@
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>46307.64</v>
-      </c>
-      <c r="D16" s="13" t="e">
-        <f ca="1">SUM(Rok[Wydatki konieczne])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E16" s="5" t="e">
-        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f ca="1">SUM(Rok[Wydatki przyjemności])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G16" s="5" t="e">
-        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>46822.64</v>
+      </c>
+      <c r="D16" s="13">
+        <f>SUM(Rok[Wydatki konieczne])</f>
+        <v>42230.080000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>0.90191582533577774</v>
+      </c>
+      <c r="F16" s="12">
+        <f>SUM(Rok[Wydatki przyjemności])</f>
+        <v>4592.5600000000004</v>
+      </c>
+      <c r="G16" s="5">
+        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>9.8084174664222271E-2</v>
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>9642.1100000000024</v>
+        <v>9127.1100000000042</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>0.17233517576039217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1631304876250565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
     </row>
@@ -5964,7 +5954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF99E5E9"/>
   </sheetPr>
@@ -5974,24 +5964,24 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
-    <col min="16" max="16" width="16.36328125" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6032,7 +6022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>578.9</v>
@@ -6071,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>92.4</v>
@@ -6111,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1024.56</v>
@@ -6150,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>260</v>
@@ -6182,7 +6172,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>296.02</v>
@@ -6213,7 +6203,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>2085.06</f>
@@ -6246,7 +6236,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>50</v>
@@ -6278,7 +6268,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>200</v>
@@ -6310,7 +6300,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>50</v>
@@ -6342,7 +6332,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>34.61</v>
@@ -6361,21 +6351,21 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet2[budżet])</f>
         <v>6179.85</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet2[wydatki])</f>
         <v>6179.85</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
+        <f>SUM(Budżet2[pozostało])</f>
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>127.47</v>
@@ -6391,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>36</v>
@@ -6414,7 +6404,7 @@
         <v>3164.1499999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>132.63999999999999</v>
@@ -6430,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>59.98</v>
@@ -6445,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>8</v>
@@ -6461,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>32.700000000000003</v>
@@ -6476,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>62.1</v>
@@ -6491,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>51.59</v>
@@ -6506,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>62.1</v>
@@ -6521,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>60.91</v>
@@ -6536,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>48.54</v>
@@ -6551,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>132.4</v>
@@ -6566,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>107.42</v>
@@ -6581,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>5.99</v>
@@ -6596,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>70.95</v>
@@ -6611,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27">
         <v>163.29</v>
@@ -6626,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28">
         <v>63.24</v>
@@ -6641,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>94.98</v>
@@ -6656,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>151</v>
@@ -6671,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -6686,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>12</v>
@@ -6701,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -6720,7 +6710,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6735,7 +6725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7CDEC4"/>
   </sheetPr>
@@ -6745,20 +6735,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="14.1796875" customWidth="1"/>
+    <col min="14" max="15" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6799,7 +6789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>1009</v>
@@ -6839,7 +6829,7 @@
         <v>-4747</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -6880,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -6910,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -6940,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>8</v>
@@ -6970,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>18*4</f>
@@ -7001,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>374.72</v>
@@ -7031,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>100</v>
@@ -7061,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>0</v>
@@ -7091,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>75.81</v>
@@ -7110,19 +7100,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet3[budżet])</f>
         <v>6338.17</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet3[wydatki])</f>
         <v>11085.17</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
+        <f>SUM(Budżet3[pozostało])</f>
         <v>-4747</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>19.989999999999998</v>
@@ -7138,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>98.98</v>
@@ -7161,7 +7151,7 @@
         <v>1598.0299999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>231.97</v>
@@ -7177,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>294.79000000000002</v>
@@ -7192,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>109.03</v>
@@ -7208,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>247.5</v>
@@ -7224,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>78.36</v>
@@ -7240,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>7.99</v>
@@ -7256,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>4800</v>
@@ -7272,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>89.98</v>
@@ -7288,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>7.99</v>
@@ -7304,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>80.680000000000007</v>
@@ -7320,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>78</v>
@@ -7336,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>18</v>
@@ -7352,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>134.37</v>
@@ -7368,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>94.69</v>
@@ -7383,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>46.5</v>
@@ -7398,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>105</v>
@@ -7414,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
@@ -7432,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -7450,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>110.42</v>
@@ -7466,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="6">
         <v>2.29</v>
@@ -7482,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>66.569999999999993</v>
@@ -7498,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="6">
         <v>165.95</v>
@@ -7514,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>31.48</v>
@@ -7530,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37">
         <v>65.17</v>
@@ -7546,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="6">
         <v>116.6</v>
@@ -7562,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="6">
         <v>229.32</v>
@@ -7578,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -7597,7 +7587,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7611,7 +7601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF9BD9A4"/>
   </sheetPr>
@@ -7621,24 +7611,24 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -7680,8 +7670,8 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="30"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>970.21</v>
       </c>
@@ -7696,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="31">
+      <c r="H2" s="29">
         <v>10079.85</v>
       </c>
       <c r="I2" t="s">
@@ -7724,8 +7714,8 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>280</v>
       </c>
@@ -7769,8 +7759,8 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>969</v>
       </c>
@@ -7784,10 +7774,7 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="2"/>
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -7807,8 +7794,8 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="25">
         <v>1864</v>
       </c>
@@ -7841,8 +7828,8 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="25">
         <v>12</v>
       </c>
@@ -7875,8 +7862,8 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>50</v>
       </c>
@@ -7909,8 +7896,8 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="34">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
       <c r="B8" s="25">
@@ -7946,8 +7933,8 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
       <c r="B9" s="25">
         <v>357.96</v>
       </c>
@@ -7980,8 +7967,8 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>104.81</v>
       </c>
@@ -8013,8 +8000,8 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>13.2</v>
       </c>
@@ -8032,20 +8019,20 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet4[budżet])</f>
         <v>7456.38</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet4[wydatki])</f>
         <v>7456.38</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="34"/>
+        <f>SUM(Budżet4[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>100</v>
       </c>
@@ -8059,8 +8046,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>42</v>
       </c>
@@ -8081,8 +8068,8 @@
         <v>2973.4700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>387.9</v>
       </c>
@@ -8097,8 +8084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>39.99</v>
       </c>
@@ -8113,8 +8100,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>72.95</v>
       </c>
@@ -8129,8 +8116,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>242.43</v>
       </c>
@@ -8145,8 +8132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -8160,8 +8147,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>13</v>
       </c>
@@ -8175,8 +8162,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>34.869999999999997</v>
       </c>
@@ -8191,8 +8178,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>63.89</v>
       </c>
@@ -8207,8 +8194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>300</v>
       </c>
@@ -8223,8 +8210,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>58.99</v>
       </c>
@@ -8238,8 +8225,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>330.2</v>
       </c>
@@ -8253,8 +8240,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>39.520000000000003</v>
       </c>
@@ -8269,8 +8256,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>79.959999999999994</v>
       </c>
@@ -8285,8 +8272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>24.99</v>
       </c>
@@ -8301,8 +8288,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>10.48</v>
       </c>
@@ -8317,8 +8304,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>63.54</v>
       </c>
@@ -8333,8 +8320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="25">
         <v>47.8</v>
       </c>
@@ -8348,8 +8335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>46.48</v>
       </c>
@@ -8364,8 +8351,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>90.96</v>
       </c>
@@ -8379,8 +8366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>194.32</v>
       </c>
@@ -8395,8 +8382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>155</v>
       </c>
@@ -8411,8 +8398,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>65</v>
       </c>
@@ -8426,8 +8413,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>40.799999999999997</v>
       </c>
@@ -8441,8 +8428,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>11</v>
       </c>
@@ -8457,8 +8444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>56.46</v>
       </c>
@@ -8473,8 +8460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>112.68</v>
       </c>
@@ -8489,8 +8476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
@@ -8509,7 +8496,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8524,7 +8511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB7D985"/>
   </sheetPr>
@@ -8534,18 +8521,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -8589,8 +8576,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="30"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>631</v>
       </c>
@@ -8633,8 +8620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>230</v>
       </c>
@@ -8674,8 +8661,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
       <c r="B4" s="6">
         <v>1864.02</v>
       </c>
@@ -8689,18 +8676,17 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F4" s="32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29">
+      <c r="F4" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>90</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" t="s">
         <v>130</v>
       </c>
       <c r="M4" t="s">
@@ -8718,8 +8704,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
       <c r="B5" s="6">
         <v>12</v>
       </c>
@@ -8733,18 +8719,17 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29">
+      <c r="F5" s="31" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>585</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" t="s">
         <v>167</v>
       </c>
       <c r="M5" t="s">
@@ -8762,8 +8747,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="30">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="6">
@@ -8780,7 +8765,7 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33" t="b">
+      <c r="F6" s="31" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -8799,8 +8784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>1344</v>
       </c>
@@ -8830,8 +8815,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="25">
         <v>320</v>
       </c>
@@ -8861,8 +8846,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
       <c r="B9">
         <v>278.77999999999997</v>
       </c>
@@ -8893,8 +8878,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>77</v>
       </c>
@@ -8925,8 +8910,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>75.81</v>
       </c>
@@ -8946,20 +8931,20 @@
         <v>48</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet5[budżet])</f>
         <v>7305.92</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet5[wydatki])</f>
         <v>7305.92</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="34"/>
+        <f>SUM(Budżet5[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>55.95</v>
       </c>
@@ -8976,8 +8961,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>114.09</v>
       </c>
@@ -9002,8 +8987,8 @@
         <v>1245.8799999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>368.2</v>
       </c>
@@ -9020,8 +9005,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>49.27</v>
       </c>
@@ -9039,8 +9024,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>48.93</v>
       </c>
@@ -9058,8 +9043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>58.23</v>
       </c>
@@ -9077,8 +9062,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>7</v>
       </c>
@@ -9093,8 +9078,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>17.53</v>
       </c>
@@ -9112,8 +9097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>84.93</v>
       </c>
@@ -9131,8 +9116,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>104</v>
       </c>
@@ -9149,8 +9134,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>177.99</v>
       </c>
@@ -9167,8 +9152,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -9183,8 +9168,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>104.98</v>
       </c>
@@ -9202,8 +9187,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>55.97</v>
       </c>
@@ -9221,8 +9206,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>45.49</v>
       </c>
@@ -9240,8 +9225,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>60.45</v>
       </c>
@@ -9259,8 +9244,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>60.79</v>
       </c>
@@ -9278,8 +9263,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>59.99</v>
       </c>
@@ -9296,8 +9281,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="25">
         <f>19.5*2</f>
         <v>39</v>
@@ -9313,8 +9298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>40</v>
       </c>
@@ -9331,8 +9316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>15.76</v>
       </c>
@@ -9350,8 +9335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>16</v>
       </c>
@@ -9368,8 +9353,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>60</v>
       </c>
@@ -9386,8 +9371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>96.75</v>
       </c>
@@ -9405,8 +9390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>19.5</v>
       </c>
@@ -9424,8 +9409,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>108.67</v>
       </c>
@@ -9442,8 +9427,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>80</v>
       </c>
@@ -9460,8 +9445,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>56</v>
       </c>
@@ -9479,8 +9464,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="25">
         <v>46.58</v>
       </c>
@@ -9498,8 +9483,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
       <c r="B41" s="25">
         <v>236.99</v>
       </c>
@@ -9516,8 +9501,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
       <c r="B42" s="25">
         <v>5</v>
       </c>
@@ -9535,8 +9520,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
       <c r="B43" s="25">
         <v>10</v>
       </c>
@@ -9552,8 +9537,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
       <c r="B44" s="25">
         <v>77.28</v>
       </c>
@@ -9570,8 +9555,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
@@ -9593,7 +9578,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9607,31 +9592,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9675,7 +9660,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <v>240</v>
@@ -9719,7 +9704,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -9747,11 +9732,11 @@
         <v>11</v>
       </c>
       <c r="M3" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="N3" s="2">
         <f>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</f>
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="O3" s="2">
         <f>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</f>
@@ -9759,7 +9744,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>194</v>
@@ -9774,14 +9759,13 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29">
+      <c r="H4" s="2">
         <v>40</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" t="s">
         <v>198</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" t="s">
         <v>199</v>
       </c>
       <c r="L4" t="s">
@@ -9800,7 +9784,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1809</v>
@@ -9819,19 +9803,19 @@
         <v>56</v>
       </c>
       <c r="M5" s="2">
-        <v>1600</v>
+        <v>1193.04</v>
       </c>
       <c r="N5" s="2">
         <f>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</f>
-        <v>1105.81</v>
+        <v>1193.04</v>
       </c>
       <c r="O5" s="2">
         <f>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</f>
-        <v>494.19000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <f>2*19.5</f>
@@ -9850,19 +9834,19 @@
         <v>41</v>
       </c>
       <c r="M6" s="2">
-        <v>104.98</v>
+        <v>207.98</v>
       </c>
       <c r="N6" s="2">
         <f>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</f>
-        <v>100</v>
+        <v>207.98000000000002</v>
       </c>
       <c r="O6" s="2">
         <f>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</f>
-        <v>4.980000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -9881,7 +9865,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="2">
-        <v>800</v>
+        <v>778.46</v>
       </c>
       <c r="N7" s="2">
         <f>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</f>
@@ -9889,11 +9873,11 @@
       </c>
       <c r="O7" s="2">
         <f>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</f>
-        <v>21.539999999999964</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -9923,11 +9907,11 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
-        <f>18*4</f>
-        <v>72</v>
+        <f>18*5</f>
+        <v>90</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>11</v>
@@ -9955,7 +9939,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="25">
         <v>25</v>
@@ -9973,19 +9957,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="2">
-        <v>200</v>
+        <v>161.88999999999999</v>
       </c>
       <c r="N10" s="2">
         <f>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</f>
-        <v>148.88999999999999</v>
+        <v>161.88999999999999</v>
       </c>
       <c r="O10" s="2">
         <f>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</f>
-        <v>51.110000000000014</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="25">
         <v>50</v>
@@ -10004,19 +9988,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
-        <v>7563.3099999999995</v>
+        <f>SUM(Budżet6[budżet])</f>
+        <v>7217.7</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
-        <v>9110.489999999998</v>
+        <f>SUM(Budżet6[wydatki])</f>
+        <v>9336.7000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>-1547.1799999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <f>SUM(Budżet6[pozostało])</f>
+        <v>-2119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>969</v>
@@ -10032,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>128</v>
       </c>
@@ -10054,10 +10038,10 @@
       </c>
       <c r="M13" s="2">
         <f>SUM(Przychody6[kwota])-Budżet6[[#Totals],[budżet]]</f>
-        <v>2450.6400000000012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>2796.2500000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <f>1500+128.32+392.54</f>
@@ -10074,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <v>6.59</v>
@@ -10090,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>139.59</v>
@@ -10106,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>100</v>
@@ -10122,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>11</v>
@@ -10137,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>13.6</v>
@@ -10153,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>53.62</v>
@@ -10169,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>140</v>
@@ -10184,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>8.8800000000000008</v>
@@ -10200,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>27.98</v>
@@ -10216,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>39.979999999999997</v>
@@ -10232,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>199.98</v>
@@ -10248,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>140.96</v>
@@ -10264,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>112.34</v>
@@ -10280,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>21.68</v>
@@ -10296,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>13.39</v>
@@ -10312,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>387.5</v>
@@ -10328,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="25">
         <v>111.44</v>
@@ -10344,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>78.47</v>
@@ -10360,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>9.58</v>
@@ -10376,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>136.79</v>
@@ -10391,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>1344</v>
@@ -10407,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>250</v>
@@ -10423,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>13</v>
@@ -10438,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>214.36</v>
@@ -10454,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>8.89</v>
@@ -10469,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <v>140</v>
@@ -10484,14 +10468,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="B41" s="25">
+        <v>107.98</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E41" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25">
+        <v>87.23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10506,7 +10527,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10520,32 +10541,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10586,7 +10607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -10600,7 +10621,7 @@
       <c r="D2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="37" t="b">
+      <c r="E2" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10630,7 +10651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
@@ -10663,7 +10684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -10695,7 +10716,7 @@
         <v>-0.85999999999967258</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>128</v>
       </c>
@@ -10708,7 +10729,7 @@
       <c r="D5" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="37" t="b">
+      <c r="E5" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10727,7 +10748,7 @@
         <v>1568.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -10740,25 +10761,25 @@
       <c r="D6" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="37" t="b">
+      <c r="E6" s="35" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N6" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>100</v>
+        <v>243.79000000000002</v>
       </c>
       <c r="O6" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>156.20999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>128</v>
       </c>
@@ -10771,7 +10792,7 @@
       <c r="D7" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="37" t="b">
+      <c r="E7" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10779,18 +10800,18 @@
         <v>42</v>
       </c>
       <c r="M7" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N7" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="O7" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>128</v>
       </c>
@@ -10803,7 +10824,7 @@
       <c r="D8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="37" t="b">
+      <c r="E8" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10811,7 +10832,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
@@ -10819,10 +10840,10 @@
       </c>
       <c r="O8" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
@@ -10836,7 +10857,7 @@
       <c r="D9" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="37" t="b">
+      <c r="E9" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10855,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>128</v>
       </c>
@@ -10868,7 +10889,7 @@
       <c r="D10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="37" t="b">
+      <c r="E10" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10887,7 +10908,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -10900,7 +10921,7 @@
       <c r="D11" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="37" t="b">
+      <c r="E11" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -10908,19 +10929,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
-        <v>9383</v>
+        <f>SUM(Budżet71[budżet])</f>
+        <v>9283</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
-        <v>4581.8499999999995</v>
+        <f>SUM(Budżet71[wydatki])</f>
+        <v>4870.6399999999994</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>4801.1500000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <f>SUM(Budżet71[pozostało])</f>
+        <v>4412.3600000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>0</v>
@@ -10931,21 +10952,21 @@
       <c r="D12" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="38" t="s">
+      <c r="E12" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="25">
         <v>260</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>204</v>
       </c>
       <c r="E13" s="27" t="b">
@@ -10956,15 +10977,50 @@
       </c>
       <c r="M13" s="2">
         <f>SUM(Przychody7[kwota])-Budżet71[[#Totals],[budżet]]</f>
-        <v>290.95000000000073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>390.95000000000073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="25">
+        <v>145</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25">
+        <f>288.79-B14</f>
+        <v>143.79000000000002</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
@@ -10978,7 +11034,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10993,7 +11049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
@@ -11003,9 +11059,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11040,7 +11096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -11051,7 +11107,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -11072,7 +11128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF38D6D"/>
   </sheetPr>
@@ -11082,19 +11138,19 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -11140,7 +11196,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -11151,127 +11207,127 @@
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
     </row>
   </sheetData>

--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVE\Desktop\simple-budget\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DC75F-1B6B-4B53-A844-C7564B3EECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A95BC-808E-4823-89DC-7FB95FC1CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="219">
   <si>
     <t>data</t>
   </si>
@@ -696,6 +696,39 @@
   </si>
   <si>
     <t>suplementy</t>
+  </si>
+  <si>
+    <t>steam gry</t>
+  </si>
+  <si>
+    <t>do Międzyzroi</t>
+  </si>
+  <si>
+    <t>picie</t>
+  </si>
+  <si>
+    <t>jedzenie na mieście</t>
+  </si>
+  <si>
+    <t>jedzenie jess</t>
+  </si>
+  <si>
+    <t>do i z Wolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pizza </t>
+  </si>
+  <si>
+    <t>papiernicze Zebra</t>
+  </si>
+  <si>
+    <t>opaski na oczy</t>
+  </si>
+  <si>
+    <t>PIT za 06/23</t>
+  </si>
+  <si>
+    <t>VAT za 06/23</t>
   </si>
 </sst>
 </file>
@@ -706,7 +739,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +796,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -894,11 +935,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -940,21 +982,15 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="186">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -2698,6 +2734,15 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -4125,18 +4170,18 @@
   <autoFilter ref="L1:P10" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <totalsRowFormula>SUM(Budżet6[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Budżet6[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Budżet6[pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4147,7 +4192,7 @@
   <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="95"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4172,14 +4217,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E16" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
-  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E36" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="87">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4192,14 +4237,14 @@
   <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Budżet71[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Budżet71[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="0">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Budżet71[pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4213,7 +4258,7 @@
   <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="83"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4222,18 +4267,18 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="data" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="gdzie" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="data" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="gdzie" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="74">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="stałe" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="stałe" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4244,7 +4289,7 @@
   <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="kwota" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="kwota" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4253,18 +4298,18 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="kwota" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="kategoria" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="na co" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="gdzie" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="przyjemności" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="kwota" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="kategoria" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="na co" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="gdzie" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="przyjemności" dataDxfId="63">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="stałe" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="stałe" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4275,7 +4320,7 @@
   <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="kwota" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="kwota" dataDxfId="61"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4284,18 +4329,18 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="data" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="kwota" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="kategoria" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="na co" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="gdzie" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="przyjemności" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="data" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="kwota" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="kategoria" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="na co" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="gdzie" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="przyjemności" dataDxfId="52">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="stałe" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="stałe" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4306,7 +4351,7 @@
   <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4315,18 +4360,18 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="41">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4358,7 +4403,7 @@
   <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="źródło"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="na/za co"/>
   </tableColumns>
@@ -4367,18 +4412,18 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="30">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4389,28 +4434,28 @@
   <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="miesiąc"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="Dochód" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="Dochód" dataDxfId="28">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Wydatki" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Wydatki" dataDxfId="27">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="Wydatki konieczne" dataDxfId="29" dataCellStyle="Procentowy">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="Wydatki konieczne" dataDxfId="26" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1F00-000009000000}" name="Wydatki konieczne [%]" dataDxfId="28" dataCellStyle="Procentowy">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1F00-000009000000}" name="Wydatki konieczne [%]" dataDxfId="25" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Wydatki przyjemności" dataDxfId="27" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Wydatki przyjemności" dataDxfId="24" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1F00-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="26" dataCellStyle="Procentowy">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1F00-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="23" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Oszczędności" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Oszczędności" dataDxfId="22">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Oszczędności [%]" dataDxfId="24" dataCellStyle="Procentowy">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Oszczędności [%]" dataDxfId="21" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4419,32 +4464,32 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A15:I16" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="okres" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Dochód" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="okres" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Dochód" dataDxfId="17">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Wydatki" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Wydatki" dataDxfId="16">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Wydatki konieczne" dataDxfId="18" dataCellStyle="Procentowy">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Wydatki konieczne" dataDxfId="15" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Wydatki konieczne [%]" dataDxfId="17" dataCellStyle="Procentowy">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Wydatki konieczne [%]" dataDxfId="14" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="Wydatki przyjemności" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="Wydatki przyjemności" dataDxfId="13">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="15" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="12" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2000-000008000000}" name="Oszczędności" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2000-000008000000}" name="Oszczędności" dataDxfId="11">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2000-000009000000}" name="Oszczędności [%]" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2000-000009000000}" name="Oszczędności [%]" dataDxfId="10">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5064,7 +5109,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5329,8 +5374,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5609,35 +5654,35 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(Przychody7[kwota])</f>
-        <v>9673.9500000000007</v>
+        <v>9132.75</v>
       </c>
       <c r="C8" s="5">
         <f>SUM(Wydatki7[kwota])</f>
-        <v>5064.6399999999994</v>
+        <v>7346.25</v>
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" ref="D8">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
-        <v>5064.6399999999994</v>
+        <v>6770.3600000000006</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>1</v>
+        <v>0.92160762293687259</v>
       </c>
       <c r="F8" s="5">
         <f>SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
-        <v>0</v>
+        <v>575.89</v>
       </c>
       <c r="G8" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0</v>
+        <v>7.8392377063127447E-2</v>
       </c>
       <c r="H8" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>4609.3100000000013</v>
+        <v>1786.5</v>
       </c>
       <c r="I8" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.47646617979212225</v>
+        <v>0.19561468341956148</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5866,35 +5911,35 @@
       </c>
       <c r="B16" s="12">
         <f>SUM(Rok[Dochód])</f>
-        <v>55949.75</v>
+        <v>55408.55</v>
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>46822.64</v>
+        <v>49104.25</v>
       </c>
       <c r="D16" s="13">
         <f>SUM(Rok[Wydatki konieczne])</f>
-        <v>42230.080000000002</v>
+        <v>43935.8</v>
       </c>
       <c r="E16" s="5">
         <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>0.90191582533577774</v>
+        <v>0.89474536318139475</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(Rok[Wydatki przyjemności])</f>
-        <v>4592.5600000000004</v>
+        <v>5168.4500000000007</v>
       </c>
       <c r="G16" s="5">
         <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>9.8084174664222271E-2</v>
+        <v>0.10525463681860533</v>
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>9127.1100000000042</v>
+        <v>6304.300000000002</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>0.1631304876250565</v>
+        <v>0.11377846920736966</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6710,7 +6755,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7587,7 +7632,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8496,7 +8541,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9578,7 +9623,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10527,7 +10572,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10545,10 +10590,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10608,9 +10653,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="25">
         <f>1500+128.32+392.54</f>
         <v>2020.86</v>
@@ -10627,7 +10670,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2">
-        <v>9673.9500000000007</v>
+        <v>9132.75</v>
       </c>
       <c r="I2" t="s">
         <v>205</v>
@@ -10639,24 +10682,22 @@
         <v>44</v>
       </c>
       <c r="M2" s="2">
-        <f>B4+B5+B3+B10</f>
-        <v>2333</v>
+        <f>B3+B4+B5</f>
+        <v>2827</v>
       </c>
       <c r="N2" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>2039</v>
+        <v>2827</v>
       </c>
       <c r="O2" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="6">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>44</v>
@@ -10677,11 +10718,11 @@
       </c>
       <c r="N3" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="O3" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>300</v>
+        <v>206.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -10689,13 +10730,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="25">
-        <v>194</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>190</v>
+        <v>859</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="E4" s="27" t="b">
         <f>FALSE()</f>
@@ -10721,13 +10762,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="25">
-        <v>1809</v>
+        <v>1708</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>170</v>
+      <c r="D5" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="E5" s="35" t="b">
         <f>FALSE()</f>
@@ -10741,11 +10782,11 @@
       </c>
       <c r="N5" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>31.99</v>
+        <v>1189.3500000000001</v>
       </c>
       <c r="O5" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>1568.01</v>
+        <v>410.64999999999986</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -10768,7 +10809,7 @@
         <v>41</v>
       </c>
       <c r="M6" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N6" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
@@ -10776,7 +10817,7 @@
       </c>
       <c r="O6" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>156.20999999999998</v>
+        <v>56.20999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -10800,21 +10841,19 @@
         <v>42</v>
       </c>
       <c r="M7" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N7" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>145</v>
+        <v>355.76</v>
       </c>
       <c r="O7" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>455</v>
+        <v>44.240000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>128</v>
-      </c>
+      <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -10832,7 +10871,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N8" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
@@ -10840,16 +10879,14 @@
       </c>
       <c r="O8" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>128</v>
-      </c>
+      <c r="A9" s="26"/>
       <c r="B9" s="25">
-        <f>18*0</f>
-        <v>0</v>
+        <f>18*2</f>
+        <v>36</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>11</v>
@@ -10865,11 +10902,11 @@
         <v>13</v>
       </c>
       <c r="M9" s="2">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
@@ -10897,15 +10934,15 @@
         <v>14</v>
       </c>
       <c r="M10" s="2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="N10" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>0</v>
+        <v>173.99</v>
       </c>
       <c r="O10" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>1500</v>
+        <v>1026.01</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -10930,15 +10967,15 @@
       </c>
       <c r="M11" s="2">
         <f>SUM(Budżet71[budżet])</f>
-        <v>9283</v>
+        <v>9129</v>
       </c>
       <c r="N11" s="2">
         <f>SUM(Budżet71[wydatki])</f>
-        <v>4870.6399999999994</v>
+        <v>7346.25</v>
       </c>
       <c r="O11" s="2">
         <f>SUM(Budżet71[pozostało])</f>
-        <v>4412.3600000000006</v>
+        <v>1782.7500000000002</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -10957,9 +10994,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>128</v>
-      </c>
+      <c r="A13" s="36"/>
       <c r="B13" s="25">
         <v>260</v>
       </c>
@@ -10977,7 +11012,7 @@
       </c>
       <c r="M13" s="2">
         <f>SUM(Przychody7[kwota])-Budżet71[[#Totals],[budżet]]</f>
-        <v>390.95000000000073</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -10985,10 +11020,10 @@
       <c r="B14" s="25">
         <v>145</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E14" s="27" t="b">
@@ -11001,10 +11036,10 @@
         <f>288.79-B14</f>
         <v>143.79000000000002</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E15" s="27" t="b">
@@ -11014,10 +11049,328 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="25">
+        <v>107</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>208</v>
+      </c>
       <c r="E16" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25">
+        <v>140.99</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="25">
+        <v>41.97</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25">
+        <v>43.59</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25">
+        <v>117.5</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="25">
+        <v>93.14</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="25">
+        <v>108</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="25">
+        <v>19.5</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25">
+        <v>35</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25">
+        <v>7.99</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="25">
+        <v>53</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="25">
+        <v>52</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="39">
+        <f>19*2</f>
+        <v>38</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25">
+        <v>69</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="25">
+        <v>210.76</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25">
+        <v>260.76</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="25">
+        <v>47.99</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="25">
+        <v>194.22</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11034,16 +11387,19 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl" xr:uid="{47C08AEA-2517-48A0-B88A-C87161CEC8DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVE\Desktop\simple-budget\src\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A95BC-808E-4823-89DC-7FB95FC1CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="596" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -31,9 +25,9 @@
     <definedName name="Budżet7">#REF!</definedName>
     <definedName name="stawka">III!$H$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,13 +44,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="235">
   <si>
     <t>data</t>
   </si>
@@ -729,17 +723,65 @@
   </si>
   <si>
     <t>VAT za 06/23</t>
+  </si>
+  <si>
+    <t>savona</t>
+  </si>
+  <si>
+    <t>do świnoujścia</t>
+  </si>
+  <si>
+    <t>z świnoujścia</t>
+  </si>
+  <si>
+    <t>polregio</t>
+  </si>
+  <si>
+    <t>zwrot</t>
+  </si>
+  <si>
+    <t>kolczyki</t>
+  </si>
+  <si>
+    <t>biedronka</t>
+  </si>
+  <si>
+    <t>kawiarnia</t>
+  </si>
+  <si>
+    <t>urlop świnoujście, wolin, trzebiatów</t>
+  </si>
+  <si>
+    <t>poduszka podrozna</t>
+  </si>
+  <si>
+    <t>książki</t>
+  </si>
+  <si>
+    <t>doładowanie telefonu</t>
+  </si>
+  <si>
+    <t>sbbetting</t>
+  </si>
+  <si>
+    <t>księgowa za 07/23</t>
+  </si>
+  <si>
+    <t>PIT za 07/23</t>
+  </si>
+  <si>
+    <t>VAT za 07/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,7 +982,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -984,13 +1026,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="191">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -1011,6 +1055,178 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1021,54 +1237,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2288,58 +2463,16 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -2536,6 +2669,28 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -2615,15 +2770,13 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="5"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2643,174 +2796,13 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="5"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2840,58 +2832,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -2946,6 +2886,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -3190,6 +3140,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3379,6 +3339,16 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3591,6 +3561,16 @@
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3803,6 +3783,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3994,6 +3984,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4023,46 +4023,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0,00 zł"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="kwota" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="0,00 zł"/>
+    <tableColumn id="5" name="kwota" dataDxfId="189"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="kwota" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="142"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
-      <totalsRowFormula>SUM(Budżet4[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet4[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet4[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4070,14 +4070,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="134" tableBorderDxfId="133">
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="135" tableBorderDxfId="134">
+  <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="razy" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="kwota" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="kategoria" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="na co" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="przyjemności" dataDxfId="128">
+    <tableColumn id="1" name="razy" dataDxfId="133"/>
+    <tableColumn id="2" name="kwota" dataDxfId="132"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="131"/>
+    <tableColumn id="4" name="na co" dataDxfId="130"/>
+    <tableColumn id="5" name="przyjemności" dataDxfId="129">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4086,15 +4086,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
-  <autoFilter ref="A1:F45" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+  <autoFilter ref="A1:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="razy" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="kwota" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="kategoria" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="na co" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="gdzie" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="przyjemności" dataDxfId="119">
+    <tableColumn id="1" name="razy" dataDxfId="124"/>
+    <tableColumn id="2" name="kwota" dataDxfId="123"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="122"/>
+    <tableColumn id="4" name="na co" dataDxfId="121"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="120"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="119">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4103,33 +4103,33 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
-  <autoFilter ref="H1:K5" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
+  <autoFilter ref="H1:K5"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="kwota" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="118"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
-  <autoFilter ref="M1:P10" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
+  <autoFilter ref="M1:P10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
-      <totalsRowFormula>SUM(Budżet5[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet5[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet5[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4137,27 +4137,27 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="kwota" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="110"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" tableBorderDxfId="108">
-  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
+  <autoFilter ref="A1:E43"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="data" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="kwota" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="kategoria" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="na co" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="przyjemności" dataDxfId="103">
+    <tableColumn id="1" name="data" dataDxfId="106"/>
+    <tableColumn id="2" name="kwota" dataDxfId="105"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="104"/>
+    <tableColumn id="4" name="na co" dataDxfId="103"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="102">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4166,49 +4166,49 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
-  <autoFilter ref="L1:P10" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
+  <autoFilter ref="L1:P10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
-      <totalsRowFormula>SUM(Budżet6[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet6[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet6[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="96"/>
+    <tableColumn id="5" name="Kolumna1" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="93"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="184" tableBorderDxfId="183">
-  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="188" tableBorderDxfId="187">
+  <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="data" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="kwota" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="kategoria" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="na co" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="przyjemności" dataDxfId="178">
+    <tableColumn id="1" name="data" dataDxfId="186"/>
+    <tableColumn id="2" name="kwota" dataDxfId="185"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="184"/>
+    <tableColumn id="4" name="na co" dataDxfId="183"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="182">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4217,14 +4217,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E36" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
-  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="A1:E49"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="87">
+    <tableColumn id="1" name="data" dataDxfId="89"/>
+    <tableColumn id="2" name="kwota" dataDxfId="88"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="87"/>
+    <tableColumn id="4" name="na co" dataDxfId="86"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="85">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4233,20 +4233,20 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="2">
-      <totalsRowFormula>SUM(Budżet71[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="17">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="1">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="16">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet71[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="0">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="15">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet71[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4254,144 +4254,144 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Przychody8" displayName="Przychody8" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="F1:I3" totalsRowShown="0">
+  <autoFilter ref="F1:I3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="81"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="data" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="gdzie" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D15"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="kwota" dataDxfId="10"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="9"/>
+    <tableColumn id="4" name="na co" dataDxfId="8"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="7">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="stałe" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Przychody9" displayName="Przychody9" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="kwota" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</calculatedColumnFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+      <calculatedColumnFormula>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="80"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="kwota" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="kategoria" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="na co" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="gdzie" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="przyjemności" dataDxfId="63">
+    <tableColumn id="1" name="data" dataDxfId="76"/>
+    <tableColumn id="2" name="kwota" dataDxfId="75"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="74"/>
+    <tableColumn id="4" name="na co" dataDxfId="73"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="72"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="71">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="stałe" dataDxfId="62"/>
+    <tableColumn id="7" name="stałe" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="kwota" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="69"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="data" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="kwota" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="kategoria" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="na co" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="gdzie" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="przyjemności" dataDxfId="52">
+    <tableColumn id="1" name="data" dataDxfId="65"/>
+    <tableColumn id="2" name="kwota" dataDxfId="64"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="63"/>
+    <tableColumn id="4" name="na co" dataDxfId="62"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="61"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="60">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="stałe" dataDxfId="51"/>
+    <tableColumn id="7" name="stałe" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="58"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="41">
-      <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="180">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="40"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
-      <totalsRowFormula>SUM(Budżet1[budżet])</totalsRowFormula>
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="178">
+      <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="174">
-      <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet1[wydatki])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="173" totalsRowDxfId="172">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet1[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4399,63 +4399,81 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="data" dataDxfId="54"/>
+    <tableColumn id="2" name="kwota" dataDxfId="53"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="52"/>
+    <tableColumn id="4" name="na co" dataDxfId="51"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="50"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="49">
+      <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="stałe" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="47"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="30">
+    <tableColumn id="1" name="data" dataDxfId="43"/>
+    <tableColumn id="2" name="kwota" dataDxfId="42"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="41"/>
+    <tableColumn id="4" name="na co" dataDxfId="40"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="39"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="38">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="29"/>
+    <tableColumn id="7" name="stałe" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="miesiąc"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="Dochód" dataDxfId="28">
+    <tableColumn id="1" name="miesiąc"/>
+    <tableColumn id="5" name="Dochód" dataDxfId="36">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Wydatki" dataDxfId="27">
+    <tableColumn id="4" name="Wydatki" dataDxfId="35">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="Wydatki konieczne" dataDxfId="26" dataCellStyle="Procentowy">
+    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="34" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1F00-000009000000}" name="Wydatki konieczne [%]" dataDxfId="25" dataCellStyle="Procentowy">
+    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="33" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Wydatki przyjemności" dataDxfId="24" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="32" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1F00-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="23" dataCellStyle="Procentowy">
+    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="31" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Oszczędności" dataDxfId="22">
+    <tableColumn id="2" name="Oszczędności" dataDxfId="30">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Oszczędności [%]" dataDxfId="21" dataCellStyle="Procentowy">
+    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="29" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4463,33 +4481,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A15:I16" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A15:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="okres" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Dochód" dataDxfId="17">
+    <tableColumn id="1" name="okres" dataDxfId="26"/>
+    <tableColumn id="2" name="Dochód" dataDxfId="25">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Wydatki" dataDxfId="16">
+    <tableColumn id="3" name="Wydatki" dataDxfId="24">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Wydatki konieczne" dataDxfId="15" dataCellStyle="Procentowy">
+    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="23" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Wydatki konieczne [%]" dataDxfId="14" dataCellStyle="Procentowy">
+    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="22" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="Wydatki przyjemności" dataDxfId="13">
+    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="21">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="12" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="20" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2000-000008000000}" name="Oszczędności" dataDxfId="11">
+    <tableColumn id="8" name="Oszczędności" dataDxfId="19">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2000-000009000000}" name="Oszczędności [%]" dataDxfId="10">
+    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="18">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4498,47 +4516,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
-  <autoFilter ref="A1:E33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173" tableBorderDxfId="172">
+  <autoFilter ref="A1:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="data" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="kwota" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="kategoria" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="na co" dataDxfId="165"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="przyjemności" dataDxfId="164"/>
+    <tableColumn id="1" name="data" dataDxfId="171"/>
+    <tableColumn id="2" name="kwota" dataDxfId="170"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="169"/>
+    <tableColumn id="4" name="na co" dataDxfId="168"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="kwota" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="166"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
-      <totalsRowFormula>SUM(Budżet2[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet2[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet2[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4546,29 +4564,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="kwota" dataDxfId="156">
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="158">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="na/za co"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" tableBorderDxfId="153">
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156" tableBorderDxfId="155">
+  <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="data" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="kwota" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="kategoria" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="na co" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="przyjemności" dataDxfId="148">
+    <tableColumn id="1" name="data" dataDxfId="154"/>
+    <tableColumn id="2" name="kwota" dataDxfId="153"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="152"/>
+    <tableColumn id="4" name="na co" dataDxfId="151"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="150">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4577,20 +4595,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
-      <totalsRowFormula>SUM(Budżet3[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet3[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet3[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4852,14 +4870,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4869,25 +4887,25 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -4951,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="L3" t="s">
@@ -4969,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -4985,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="L5" t="s">
         <v>56</v>
       </c>
@@ -5001,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="L6" t="s">
         <v>41</v>
       </c>
@@ -5017,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="L7" t="s">
         <v>42</v>
       </c>
@@ -5033,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="L8" t="s">
         <v>45</v>
       </c>
@@ -5049,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="L9" t="s">
         <v>13</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="L10" t="s">
         <v>14</v>
       </c>
@@ -5081,24 +5099,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet1[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet1[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet1[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="L13" t="s">
         <v>49</v>
       </c>
@@ -5109,7 +5127,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5124,7 +5142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFE57F97"/>
   </sheetPr>
@@ -5134,16 +5152,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5178,7 +5196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5189,7 +5207,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5210,7 +5228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC986DE"/>
   </sheetPr>
@@ -5220,9 +5238,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5268,7 +5286,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5289,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF948CE0"/>
   </sheetPr>
@@ -5299,9 +5317,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5347,7 +5365,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5368,30 +5386,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5420,7 +5438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5457,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -5494,7 +5512,7 @@
         <v>0.338629066780822</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5534,7 +5552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0.28509230717603812</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>0.14568628826679766</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -5648,17 +5666,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(Przychody7[kwota])</f>
-        <v>9132.75</v>
+        <v>9148.9500000000007</v>
       </c>
       <c r="C8" s="5">
         <f>SUM(Wydatki7[kwota])</f>
-        <v>7346.25</v>
+        <v>9225.119999999999</v>
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" ref="D8">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
@@ -5666,63 +5684,66 @@
       </c>
       <c r="E8" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0.92160762293687259</v>
-      </c>
-      <c r="F8" s="5">
-        <f>SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
-        <v>575.89</v>
-      </c>
-      <c r="G8" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>7.8392377063127447E-2</v>
+        <v>0.73390481641431238</v>
+      </c>
+      <c r="F8" s="5" t="e">
+        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H8" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>1786.5</v>
+        <v>-76.169999999998254</v>
       </c>
       <c r="I8" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.19561468341956148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.3255455544076918E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(Przychody8[kwota])</f>
-        <v>0</v>
+        <v>9132.75</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(Wydatki8[kwota])</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" cm="1">
-        <f t="array" ref="D9">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f>SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],Wydatki8[przyjemności],0))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0</v>
+        <v>5343.5399999999981</v>
+      </c>
+      <c r="D9" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="5" t="e">
+        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],Wydatki8[przyjemności],0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>0</v>
+        <v>3789.2100000000019</v>
       </c>
       <c r="I9" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.41490350661082387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5759,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5796,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5833,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5870,13 +5891,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
@@ -5905,85 +5926,85 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="12">
         <f>SUM(Rok[Dochód])</f>
-        <v>55408.55</v>
+        <v>64557.5</v>
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>49104.25</v>
-      </c>
-      <c r="D16" s="13">
-        <f>SUM(Rok[Wydatki konieczne])</f>
-        <v>43935.8</v>
-      </c>
-      <c r="E16" s="5">
-        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>0.89474536318139475</v>
-      </c>
-      <c r="F16" s="12">
-        <f>SUM(Rok[Wydatki przyjemności])</f>
-        <v>5168.4500000000007</v>
-      </c>
-      <c r="G16" s="5">
-        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>0.10525463681860533</v>
+        <v>56326.659999999996</v>
+      </c>
+      <c r="D16" s="13" t="e">
+        <f ca="1">SUM(Rok[Wydatki konieczne])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="5" t="e">
+        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="12" t="e">
+        <f ca="1">SUM(Rok[Wydatki przyjemności])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>6304.300000000002</v>
+        <v>8230.8400000000056</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>0.11377846920736966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.12749626302133765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="B27"/>
       <c r="C27"/>
     </row>
@@ -5999,7 +6020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF99E5E9"/>
   </sheetPr>
@@ -6009,24 +6030,24 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" customWidth="1"/>
+    <col min="16" max="16" width="16.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6067,7 +6088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>578.9</v>
@@ -6106,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>92.4</v>
@@ -6146,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1024.56</v>
@@ -6185,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>260</v>
@@ -6217,7 +6238,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>296.02</v>
@@ -6248,7 +6269,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>2085.06</f>
@@ -6281,7 +6302,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>50</v>
@@ -6313,7 +6334,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>200</v>
@@ -6345,7 +6366,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>50</v>
@@ -6377,7 +6398,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>34.61</v>
@@ -6396,21 +6417,21 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet2[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>6179.85</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet2[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>6179.85</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet2[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>127.47</v>
@@ -6426,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>36</v>
@@ -6449,7 +6470,7 @@
         <v>3164.1499999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>132.63999999999999</v>
@@ -6465,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>59.98</v>
@@ -6480,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>8</v>
@@ -6496,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>32.700000000000003</v>
@@ -6511,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>62.1</v>
@@ -6526,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>51.59</v>
@@ -6541,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>62.1</v>
@@ -6556,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>60.91</v>
@@ -6571,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>48.54</v>
@@ -6586,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>132.4</v>
@@ -6601,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>107.42</v>
@@ -6616,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>5.99</v>
@@ -6631,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>70.95</v>
@@ -6646,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27">
         <v>163.29</v>
@@ -6661,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28">
         <v>63.24</v>
@@ -6676,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>94.98</v>
@@ -6691,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>151</v>
@@ -6706,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -6721,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>12</v>
@@ -6736,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -6755,7 +6776,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6770,7 +6791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF7CDEC4"/>
   </sheetPr>
@@ -6780,20 +6801,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="14.21875" customWidth="1"/>
+    <col min="14" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +6855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>1009</v>
@@ -6874,7 +6895,7 @@
         <v>-4747</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -6915,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -6945,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -6975,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>8</v>
@@ -7005,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>18*4</f>
@@ -7036,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>374.72</v>
@@ -7066,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>100</v>
@@ -7096,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>0</v>
@@ -7126,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>75.81</v>
@@ -7145,19 +7166,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet3[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>6338.17</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet3[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>11085.17</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet3[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>-4747</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>19.989999999999998</v>
@@ -7173,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>98.98</v>
@@ -7196,7 +7217,7 @@
         <v>1598.0299999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>231.97</v>
@@ -7212,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>294.79000000000002</v>
@@ -7227,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>109.03</v>
@@ -7243,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>247.5</v>
@@ -7259,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>78.36</v>
@@ -7275,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>7.99</v>
@@ -7291,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>4800</v>
@@ -7307,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>89.98</v>
@@ -7323,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>7.99</v>
@@ -7339,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>80.680000000000007</v>
@@ -7355,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>78</v>
@@ -7371,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>18</v>
@@ -7387,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>134.37</v>
@@ -7403,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>94.69</v>
@@ -7418,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>46.5</v>
@@ -7433,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>105</v>
@@ -7449,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
@@ -7467,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -7485,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>110.42</v>
@@ -7501,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="6">
         <v>2.29</v>
@@ -7517,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>66.569999999999993</v>
@@ -7533,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="6">
         <v>165.95</v>
@@ -7549,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>31.48</v>
@@ -7565,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37">
         <v>65.17</v>
@@ -7581,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="6">
         <v>116.6</v>
@@ -7597,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="6">
         <v>229.32</v>
@@ -7613,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -7632,7 +7653,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7646,7 +7667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF9BD9A4"/>
   </sheetPr>
@@ -7656,23 +7677,23 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="14" max="14" width="14.08984375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="33" t="s">
         <v>105</v>
       </c>
@@ -7715,7 +7736,7 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>970.21</v>
@@ -7759,7 +7780,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>280</v>
@@ -7804,7 +7825,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>969</v>
@@ -7839,7 +7860,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="32"/>
       <c r="B5" s="25">
         <v>1864</v>
@@ -7873,7 +7894,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="32"/>
       <c r="B6" s="25">
         <v>12</v>
@@ -7907,7 +7928,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>50</v>
@@ -7941,7 +7962,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -7978,7 +7999,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="32"/>
       <c r="B9" s="25">
         <v>357.96</v>
@@ -8012,7 +8033,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>104.81</v>
@@ -8045,7 +8066,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>13.2</v>
@@ -8064,19 +8085,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet4[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7456.38</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet4[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>7456.38</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet4[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>100</v>
@@ -8091,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>42</v>
@@ -8113,7 +8134,7 @@
         <v>2973.4700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>387.9</v>
@@ -8129,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>39.99</v>
@@ -8145,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>72.95</v>
@@ -8161,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>242.43</v>
@@ -8177,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>19.989999999999998</v>
@@ -8192,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -8207,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>34.869999999999997</v>
@@ -8223,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>63.89</v>
@@ -8239,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>300</v>
@@ -8255,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>58.99</v>
@@ -8270,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>330.2</v>
@@ -8285,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>39.520000000000003</v>
@@ -8301,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>79.959999999999994</v>
@@ -8317,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>24.99</v>
@@ -8333,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>10.48</v>
@@ -8349,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>63.54</v>
@@ -8365,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <v>47.8</v>
@@ -8380,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>46.48</v>
@@ -8396,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>90.96</v>
@@ -8411,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>194.32</v>
@@ -8427,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>155</v>
@@ -8443,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>65</v>
@@ -8458,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>40.799999999999997</v>
@@ -8473,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>11</v>
@@ -8489,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>56.46</v>
@@ -8505,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>112.68</v>
@@ -8521,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="32"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -8541,7 +8562,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8556,7 +8577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFB7D985"/>
   </sheetPr>
@@ -8566,18 +8587,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -8621,7 +8642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>631</v>
@@ -8665,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -8706,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="28"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -8749,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="28"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -8792,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -8829,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>1344</v>
@@ -8860,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="32"/>
       <c r="B8" s="25">
         <v>320</v>
@@ -8891,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="32"/>
       <c r="B9">
         <v>278.77999999999997</v>
@@ -8923,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>77</v>
@@ -8955,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>75.81</v>
@@ -8976,19 +8997,19 @@
         <v>48</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet5[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7305.92</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet5[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>7305.92</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM(Budżet5[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>55.95</v>
@@ -9006,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>114.09</v>
@@ -9032,7 +9053,7 @@
         <v>1245.8799999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>368.2</v>
@@ -9050,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>49.27</v>
@@ -9069,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>48.93</v>
@@ -9088,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>58.23</v>
@@ -9107,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>7</v>
@@ -9123,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>17.53</v>
@@ -9142,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>84.93</v>
@@ -9161,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>104</v>
@@ -9179,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>177.99</v>
@@ -9197,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>19.989999999999998</v>
@@ -9213,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>104.98</v>
@@ -9232,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>55.97</v>
@@ -9251,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>45.49</v>
@@ -9270,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>60.45</v>
@@ -9289,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>60.79</v>
@@ -9308,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>59.99</v>
@@ -9326,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <f>19.5*2</f>
@@ -9343,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>40</v>
@@ -9361,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>15.76</v>
@@ -9380,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>16</v>
@@ -9398,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>60</v>
@@ -9416,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>96.75</v>
@@ -9435,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>19.5</v>
@@ -9454,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>108.67</v>
@@ -9472,7 +9493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>80</v>
@@ -9490,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>56</v>
@@ -9509,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="32"/>
       <c r="B40" s="25">
         <v>46.58</v>
@@ -9528,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="32"/>
       <c r="B41" s="25">
         <v>236.99</v>
@@ -9546,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="32"/>
       <c r="B42" s="25">
         <v>5</v>
@@ -9565,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="32"/>
       <c r="B43" s="25">
         <v>10</v>
@@ -9582,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="32"/>
       <c r="B44" s="25">
         <v>77.28</v>
@@ -9600,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="32"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -9623,7 +9644,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9637,31 +9658,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9705,7 +9726,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <v>240</v>
@@ -9749,7 +9770,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -9789,7 +9810,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>194</v>
@@ -9829,7 +9850,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1809</v>
@@ -9860,7 +9881,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <f>2*19.5</f>
@@ -9891,7 +9912,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -9922,7 +9943,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -9952,7 +9973,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
         <f>18*5</f>
@@ -9984,7 +10005,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="26"/>
       <c r="B10" s="25">
         <v>25</v>
@@ -10014,7 +10035,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="26"/>
       <c r="B11" s="25">
         <v>50</v>
@@ -10033,19 +10054,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet6[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7217.7</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet6[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>9336.7000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet6[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>-2119</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>969</v>
@@ -10061,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="26" t="s">
         <v>128</v>
       </c>
@@ -10086,7 +10107,7 @@
         <v>2796.2500000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <f>1500+128.32+392.54</f>
@@ -10103,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <v>6.59</v>
@@ -10119,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>139.59</v>
@@ -10135,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>100</v>
@@ -10151,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>11</v>
@@ -10166,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>13.6</v>
@@ -10182,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>53.62</v>
@@ -10198,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>140</v>
@@ -10213,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>8.8800000000000008</v>
@@ -10229,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>27.98</v>
@@ -10245,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>39.979999999999997</v>
@@ -10261,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>199.98</v>
@@ -10277,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>140.96</v>
@@ -10293,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>112.34</v>
@@ -10309,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>21.68</v>
@@ -10325,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>13.39</v>
@@ -10341,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>387.5</v>
@@ -10357,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" s="25">
         <v>111.44</v>
@@ -10373,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>78.47</v>
@@ -10389,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>9.58</v>
@@ -10405,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>136.79</v>
@@ -10420,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>1344</v>
@@ -10436,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>250</v>
@@ -10452,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>13</v>
@@ -10467,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>214.36</v>
@@ -10483,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>8.89</v>
@@ -10498,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <v>140</v>
@@ -10513,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="25">
         <v>107.98</v>
@@ -10529,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="25">
         <v>87.23</v>
@@ -10545,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="25">
         <v>13</v>
@@ -10572,7 +10593,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10586,32 +10607,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10652,7 +10673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <f>1500+128.32+392.54</f>
@@ -10694,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>260</v>
@@ -10709,26 +10730,32 @@
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" t="s">
+        <v>223</v>
+      </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="2">
-        <v>300</v>
+        <v>205.5</v>
       </c>
       <c r="N3" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>93.5</v>
+        <v>205.5</v>
       </c>
       <c r="O3" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>206.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>859</v>
       </c>
@@ -10746,21 +10773,19 @@
         <v>9</v>
       </c>
       <c r="M4" s="2">
-        <v>2100</v>
+        <v>2020.86</v>
       </c>
       <c r="N4" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>2100.8599999999997</v>
+        <v>2020.86</v>
       </c>
       <c r="O4" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>-0.85999999999967258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1708</v>
       </c>
@@ -10778,23 +10803,21 @@
         <v>56</v>
       </c>
       <c r="M5" s="2">
-        <v>1600</v>
+        <v>1353.34</v>
       </c>
       <c r="N5" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>1189.3500000000001</v>
+        <v>1353.3400000000001</v>
       </c>
       <c r="O5" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>410.64999999999986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="26"/>
       <c r="B6" s="25">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>9</v>
@@ -10809,21 +10832,19 @@
         <v>41</v>
       </c>
       <c r="M6" s="2">
-        <v>300</v>
+        <v>143.79</v>
       </c>
       <c r="N6" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>243.79000000000002</v>
+        <v>143.79000000000002</v>
       </c>
       <c r="O6" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>56.20999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
       </c>
@@ -10841,18 +10862,18 @@
         <v>42</v>
       </c>
       <c r="M7" s="2">
-        <v>400</v>
+        <v>390.76</v>
       </c>
       <c r="N7" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>355.76</v>
+        <v>390.76</v>
       </c>
       <c r="O7" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>44.240000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -10871,7 +10892,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N8" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
@@ -10879,14 +10900,14 @@
       </c>
       <c r="O8" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
-        <f>18*2</f>
-        <v>36</v>
+        <f>18*6</f>
+        <v>108</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>11</v>
@@ -10902,83 +10923,61 @@
         <v>13</v>
       </c>
       <c r="M9" s="2">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="N9" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="25">
-        <v>100</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="35"/>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="2">
-        <v>1200</v>
+        <v>1971.87</v>
       </c>
       <c r="N10" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>173.99</v>
+        <v>1971.8700000000001</v>
       </c>
       <c r="O10" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
-        <v>1026.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="25">
-        <v>50</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="35"/>
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet71[budżet])</f>
-        <v>9129</v>
+        <f>SUM([budżet])</f>
+        <v>9225.119999999999</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet71[wydatki])</f>
-        <v>7346.25</v>
+        <f>SUM([wydatki])</f>
+        <v>9225.1200000000008</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet71[pozostało])</f>
-        <v>1782.7500000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>0</v>
@@ -10993,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="36"/>
       <c r="B13" s="25">
         <v>260</v>
@@ -11012,10 +11011,10 @@
       </c>
       <c r="M13" s="2">
         <f>SUM(Przychody7[kwota])-Budżet71[[#Totals],[budżet]]</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-76.169999999998254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <v>145</v>
@@ -11030,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <f>288.79-B14</f>
@@ -11047,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>107</v>
@@ -11062,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>140.99</v>
@@ -11077,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>41.97</v>
@@ -11093,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>43.59</v>
@@ -11109,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>117.5</v>
@@ -11125,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>93.14</v>
@@ -11141,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>108</v>
@@ -11156,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>19.5</v>
@@ -11171,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>3.6</v>
@@ -11187,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>35</v>
@@ -11202,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>7.99</v>
@@ -11218,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>53</v>
@@ -11233,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>52</v>
@@ -11249,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>5.4</v>
@@ -11264,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>2.2000000000000002</v>
@@ -11280,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" s="39">
         <f>19*2</f>
@@ -11296,7 +11295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>69</v>
@@ -11311,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>210.76</v>
@@ -11327,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>260.76</v>
@@ -11343,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>47.99</v>
@@ -11359,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>194.22</v>
@@ -11371,6 +11370,199 @@
         <v>113</v>
       </c>
       <c r="E36" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25">
+        <v>59.34</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="26"/>
+      <c r="B38" s="25">
+        <v>91.19</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="26"/>
+      <c r="B39" s="25">
+        <v>13.46</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="26"/>
+      <c r="B40" s="25">
+        <v>1706.4</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25">
+        <v>20</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25">
+        <v>25.98</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25">
+        <v>15.39</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="26"/>
+      <c r="B44" s="25">
+        <v>20</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26"/>
+      <c r="B45" s="25">
+        <v>35</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25">
+        <v>15.11</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="26"/>
+      <c r="B47" s="25">
+        <v>10</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="26"/>
+      <c r="B48" s="25">
+        <v>25</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11387,12 +11579,12 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl" xr:uid="{47C08AEA-2517-48A0-B88A-C87161CEC8DD}"/>
+    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -11405,19 +11597,506 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="25">
+        <f>1500+128.32+392.54</f>
+        <v>2020.86</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
+        <v>9132.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="23">
+        <v>45108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
+        <f>A3+A4+A5</f>
+        <v>2827</v>
+      </c>
+      <c r="M2" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>2827</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>260</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>205.5</v>
+      </c>
+      <c r="M3" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="25">
+        <v>859</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2020.86</v>
+      </c>
+      <c r="M4" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>2020.86</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="25">
+        <v>1708</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1353.34</v>
+      </c>
+      <c r="M5" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>315.67999999999995</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>1037.6599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="25">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="25">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2">
+        <v>200</v>
+      </c>
+      <c r="M7" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="25">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>80</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="25">
+        <f>18*0</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="42">
+        <v>86.98</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="2">
+        <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="42">
+        <v>80</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2">
+        <f>SUM([budżet])</f>
+        <v>7856.7</v>
+      </c>
+      <c r="M11" s="2">
+        <f>SUM([wydatki])</f>
+        <v>5343.54</v>
+      </c>
+      <c r="N11" s="2">
+        <f>SUM([pozostało])</f>
+        <v>2513.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="42">
+        <v>71.73</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="42">
+        <v>24.98</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2">
+        <f>SUM(Przychody8[kwota])-Budżet7134[[#Totals],[budżet]]</f>
+        <v>1276.0500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="42">
+        <v>100</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="42">
+        <v>100</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N2:N10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFBCECD"/>
+        <color rgb="FFFBFEBA"/>
+        <color rgb="FFCFF1CB"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFF38D6D"/>
+  </sheetPr>
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11452,7 +12131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -11463,7 +12142,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -11474,216 +12153,127 @@
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFF38D6D"/>
-  </sheetPr>
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" s="1"/>
     </row>
   </sheetData>

--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="240">
   <si>
     <t>data</t>
   </si>
@@ -771,6 +771,21 @@
   </si>
   <si>
     <t>VAT za 07/23</t>
+  </si>
+  <si>
+    <t>do zwrotu przez łukasza</t>
+  </si>
+  <si>
+    <t>poznań nocleg</t>
+  </si>
+  <si>
+    <t>winność</t>
+  </si>
+  <si>
+    <t>dla Ł</t>
+  </si>
+  <si>
+    <t>dla N</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1049,7 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="191">
+  <dxfs count="190">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -1043,198 +1058,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2464,6 +2287,188 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -4027,7 +4032,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="0,00 zł"/>
-    <tableColumn id="5" name="kwota" dataDxfId="189"/>
+    <tableColumn id="5" name="kwota" dataDxfId="188"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4040,7 +4045,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="142"/>
+    <tableColumn id="5" name="kwota" dataDxfId="141"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4053,14 +4058,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4070,14 +4075,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="135" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="134" tableBorderDxfId="133">
   <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="razy" dataDxfId="133"/>
-    <tableColumn id="2" name="kwota" dataDxfId="132"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="131"/>
-    <tableColumn id="4" name="na co" dataDxfId="130"/>
-    <tableColumn id="5" name="przyjemności" dataDxfId="129">
+    <tableColumn id="1" name="razy" dataDxfId="132"/>
+    <tableColumn id="2" name="kwota" dataDxfId="131"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="130"/>
+    <tableColumn id="4" name="na co" dataDxfId="129"/>
+    <tableColumn id="5" name="przyjemności" dataDxfId="128">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4086,15 +4091,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <autoFilter ref="A1:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="razy" dataDxfId="124"/>
-    <tableColumn id="2" name="kwota" dataDxfId="123"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="122"/>
-    <tableColumn id="4" name="na co" dataDxfId="121"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="120"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="119">
+    <tableColumn id="1" name="razy" dataDxfId="123"/>
+    <tableColumn id="2" name="kwota" dataDxfId="122"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="121"/>
+    <tableColumn id="4" name="na co" dataDxfId="120"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="119"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="118">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4107,7 +4112,7 @@
   <autoFilter ref="H1:K5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="118"/>
+    <tableColumn id="5" name="kwota" dataDxfId="117"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4120,14 +4125,14 @@
   <autoFilter ref="M1:P10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4141,7 +4146,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="110"/>
+    <tableColumn id="5" name="kwota" dataDxfId="109"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4150,14 +4155,14 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" tableBorderDxfId="106">
   <autoFilter ref="A1:E43"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="106"/>
-    <tableColumn id="2" name="kwota" dataDxfId="105"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="104"/>
-    <tableColumn id="4" name="na co" dataDxfId="103"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="102">
+    <tableColumn id="1" name="data" dataDxfId="105"/>
+    <tableColumn id="2" name="kwota" dataDxfId="104"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="103"/>
+    <tableColumn id="4" name="na co" dataDxfId="102"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="101">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4170,18 +4175,18 @@
   <autoFilter ref="L1:P10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kolumna1" dataDxfId="95"/>
+    <tableColumn id="5" name="Kolumna1" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4192,7 +4197,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="93"/>
+    <tableColumn id="5" name="kwota" dataDxfId="92"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4201,14 +4206,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="188" tableBorderDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="187" tableBorderDxfId="186">
   <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="186"/>
-    <tableColumn id="2" name="kwota" dataDxfId="185"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="184"/>
-    <tableColumn id="4" name="na co" dataDxfId="183"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="182">
+    <tableColumn id="1" name="data" dataDxfId="185"/>
+    <tableColumn id="2" name="kwota" dataDxfId="184"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="183"/>
+    <tableColumn id="4" name="na co" dataDxfId="182"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="181">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4217,14 +4222,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90" tableBorderDxfId="89">
   <autoFilter ref="A1:E49"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="89"/>
-    <tableColumn id="2" name="kwota" dataDxfId="88"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="87"/>
-    <tableColumn id="4" name="na co" dataDxfId="86"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="85">
+    <tableColumn id="1" name="data" dataDxfId="88"/>
+    <tableColumn id="2" name="kwota" dataDxfId="87"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="86"/>
+    <tableColumn id="4" name="na co" dataDxfId="85"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="84">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4237,14 +4242,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="17">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="5">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="16">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="15">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="3">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4258,7 +4263,7 @@
   <autoFilter ref="F1:I3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="81"/>
+    <tableColumn id="5" name="kwota" dataDxfId="79"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4267,13 +4272,13 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D18" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
+  <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="kwota" dataDxfId="10"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="9"/>
-    <tableColumn id="4" name="na co" dataDxfId="8"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="7">
+    <tableColumn id="2" name="kwota" dataDxfId="75"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="74"/>
+    <tableColumn id="4" name="na co" dataDxfId="73"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="72">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4283,17 +4288,17 @@
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
-  <autoFilter ref="K1:N11"/>
+  <autoFilter ref="K1:N10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="2">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="0">
       <calculatedColumnFormula>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4307,7 +4312,7 @@
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="80"/>
+    <tableColumn id="5" name="kwota" dataDxfId="68"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4316,18 +4321,18 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="76"/>
-    <tableColumn id="2" name="kwota" dataDxfId="75"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="74"/>
-    <tableColumn id="4" name="na co" dataDxfId="73"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="72"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="71">
+    <tableColumn id="1" name="data" dataDxfId="64"/>
+    <tableColumn id="2" name="kwota" dataDxfId="63"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="62"/>
+    <tableColumn id="4" name="na co" dataDxfId="61"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="60"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="59">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="70"/>
+    <tableColumn id="7" name="stałe" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4338,7 +4343,7 @@
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="69"/>
+    <tableColumn id="5" name="kwota" dataDxfId="57"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4347,18 +4352,18 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="65"/>
-    <tableColumn id="2" name="kwota" dataDxfId="64"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="63"/>
-    <tableColumn id="4" name="na co" dataDxfId="62"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="61"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="60">
+    <tableColumn id="1" name="data" dataDxfId="53"/>
+    <tableColumn id="2" name="kwota" dataDxfId="52"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="51"/>
+    <tableColumn id="4" name="na co" dataDxfId="50"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="49"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="48">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="59"/>
+    <tableColumn id="7" name="stałe" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4369,7 +4374,7 @@
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="58"/>
+    <tableColumn id="5" name="kwota" dataDxfId="46"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4382,14 +4387,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="180">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="178">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="177">
       <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4399,18 +4404,18 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="54"/>
-    <tableColumn id="2" name="kwota" dataDxfId="53"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="52"/>
-    <tableColumn id="4" name="na co" dataDxfId="51"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="50"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="49">
+    <tableColumn id="1" name="data" dataDxfId="42"/>
+    <tableColumn id="2" name="kwota" dataDxfId="41"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="40"/>
+    <tableColumn id="4" name="na co" dataDxfId="39"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="38"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="37">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="48"/>
+    <tableColumn id="7" name="stałe" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4421,7 +4426,7 @@
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="47"/>
+    <tableColumn id="5" name="kwota" dataDxfId="35"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4430,18 +4435,18 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="43"/>
-    <tableColumn id="2" name="kwota" dataDxfId="42"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="41"/>
-    <tableColumn id="4" name="na co" dataDxfId="40"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="39"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="38">
+    <tableColumn id="1" name="data" dataDxfId="31"/>
+    <tableColumn id="2" name="kwota" dataDxfId="30"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="29"/>
+    <tableColumn id="4" name="na co" dataDxfId="28"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="27"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="26">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="37"/>
+    <tableColumn id="7" name="stałe" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4452,28 +4457,28 @@
   <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
     <tableColumn id="1" name="miesiąc"/>
-    <tableColumn id="5" name="Dochód" dataDxfId="36">
+    <tableColumn id="5" name="Dochód" dataDxfId="24">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki" dataDxfId="35">
+    <tableColumn id="4" name="Wydatki" dataDxfId="23">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="34" dataCellStyle="Procentowy">
+    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="22" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="33" dataCellStyle="Procentowy">
+    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="21" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="32" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="20" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="31" dataCellStyle="Procentowy">
+    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="19" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Oszczędności" dataDxfId="30">
+    <tableColumn id="2" name="Oszczędności" dataDxfId="18">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="29" dataCellStyle="Procentowy">
+    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="17" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4482,32 +4487,32 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A15:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="okres" dataDxfId="26"/>
-    <tableColumn id="2" name="Dochód" dataDxfId="25">
+    <tableColumn id="1" name="okres" dataDxfId="14"/>
+    <tableColumn id="2" name="Dochód" dataDxfId="13">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wydatki" dataDxfId="24">
+    <tableColumn id="3" name="Wydatki" dataDxfId="12">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="23" dataCellStyle="Procentowy">
+    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="11" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="22" dataCellStyle="Procentowy">
+    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="10" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="21">
+    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="9">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="20" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="8" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Oszczędności" dataDxfId="19">
+    <tableColumn id="8" name="Oszczędności" dataDxfId="7">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="18">
+    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="6">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4516,14 +4521,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173" tableBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172" tableBorderDxfId="171">
   <autoFilter ref="A1:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="171"/>
-    <tableColumn id="2" name="kwota" dataDxfId="170"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="169"/>
-    <tableColumn id="4" name="na co" dataDxfId="168"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="167"/>
+    <tableColumn id="1" name="data" dataDxfId="170"/>
+    <tableColumn id="2" name="kwota" dataDxfId="169"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="168"/>
+    <tableColumn id="4" name="na co" dataDxfId="167"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4534,7 +4539,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="166"/>
+    <tableColumn id="5" name="kwota" dataDxfId="165"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4547,14 +4552,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4568,7 +4573,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="158">
+    <tableColumn id="5" name="kwota" dataDxfId="157">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="źródło"/>
@@ -4579,14 +4584,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156" tableBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155" tableBorderDxfId="154">
   <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="154"/>
-    <tableColumn id="2" name="kwota" dataDxfId="153"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="152"/>
-    <tableColumn id="4" name="na co" dataDxfId="151"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="150">
+    <tableColumn id="1" name="data" dataDxfId="153"/>
+    <tableColumn id="2" name="kwota" dataDxfId="152"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="151"/>
+    <tableColumn id="4" name="na co" dataDxfId="150"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="149">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4599,14 +4604,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4870,7 +4875,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5127,7 +5132,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="190" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5676,7 +5681,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(Wydatki7[kwota])</f>
-        <v>9225.119999999999</v>
+        <v>8895.1999999999989</v>
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" ref="D8">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
@@ -5684,7 +5689,7 @@
       </c>
       <c r="E8" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0.73390481641431238</v>
+        <v>0.76112510117816368</v>
       </c>
       <c r="F8" s="5" t="e">
         <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
@@ -5696,11 +5701,11 @@
       </c>
       <c r="H8" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>-76.169999999998254</v>
+        <v>253.75000000000182</v>
       </c>
       <c r="I8" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>-8.3255455544076918E-3</v>
+        <v>2.7735423190639558E-2</v>
       </c>
       <c r="K8" t="s">
         <v>227</v>
@@ -5716,7 +5721,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(Wydatki8[kwota])</f>
-        <v>5343.5399999999981</v>
+        <v>5461.0299999999979</v>
       </c>
       <c r="D9" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
@@ -5736,11 +5741,11 @@
       </c>
       <c r="H9" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>3789.2100000000019</v>
+        <v>3671.7200000000021</v>
       </c>
       <c r="I9" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.41490350661082387</v>
+        <v>0.40203881634775968</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5936,7 +5941,7 @@
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>56326.659999999996</v>
+        <v>56114.229999999996</v>
       </c>
       <c r="D16" s="13" t="e">
         <f ca="1">SUM(Rok[Wydatki konieczne])</f>
@@ -5956,11 +5961,11 @@
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>8230.8400000000056</v>
+        <v>8443.2700000000059</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>0.12749626302133765</v>
+        <v>0.13078681795298774</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6776,7 +6781,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7653,7 +7658,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8562,7 +8567,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9644,7 +9649,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10593,7 +10598,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10614,7 +10619,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10944,11 +10949,11 @@
         <v>14</v>
       </c>
       <c r="M10" s="2">
-        <v>1971.87</v>
+        <v>1641.95</v>
       </c>
       <c r="N10" s="2">
         <f>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</f>
-        <v>1971.8700000000001</v>
+        <v>1641.95</v>
       </c>
       <c r="O10" s="2">
         <f>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</f>
@@ -10966,11 +10971,11 @@
       </c>
       <c r="M11" s="2">
         <f>SUM([budżet])</f>
-        <v>9225.119999999999</v>
+        <v>8895.2000000000007</v>
       </c>
       <c r="N11" s="2">
         <f>SUM([wydatki])</f>
-        <v>9225.1200000000008</v>
+        <v>8895.2000000000007</v>
       </c>
       <c r="O11" s="2">
         <f>SUM([pozostało])</f>
@@ -11011,7 +11016,7 @@
       </c>
       <c r="M13" s="2">
         <f>SUM(Przychody7[kwota])-Budżet71[[#Totals],[budżet]]</f>
-        <v>-76.169999999998254</v>
+        <v>253.75</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -11061,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>140.99</v>
@@ -11076,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>41.97</v>
@@ -11092,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>43.59</v>
@@ -11108,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>117.5</v>
@@ -11123,8 +11128,11 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>93.14</v>
@@ -11139,8 +11147,11 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <v>329.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>108</v>
@@ -11155,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>19.5</v>
@@ -11170,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>3.6</v>
@@ -11186,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>35</v>
@@ -11201,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>7.99</v>
@@ -11217,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>53</v>
@@ -11232,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>52</v>
@@ -11248,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>5.4</v>
@@ -11263,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>2.2000000000000002</v>
@@ -11279,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="39">
         <f>19*2</f>
@@ -11295,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>69</v>
@@ -11425,7 +11436,8 @@
     <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
-        <v>1706.4</v>
+        <f>1706.4-329.92</f>
+        <v>1376.48</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>14</v>
@@ -11579,7 +11591,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11601,10 +11613,10 @@
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11672,9 +11684,6 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2">
         <v>9132.75</v>
@@ -11721,7 +11730,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="2">
-        <v>205.5</v>
+        <v>250</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
@@ -11729,7 +11738,7 @@
       </c>
       <c r="N3" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>105.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11785,15 +11794,15 @@
         <v>56</v>
       </c>
       <c r="L5" s="2">
-        <v>1353.34</v>
+        <v>1500</v>
       </c>
       <c r="M5" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>315.67999999999995</v>
+        <v>327.03999999999996</v>
       </c>
       <c r="N5" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>1037.6599999999999</v>
+        <v>1172.96</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -11944,11 +11953,11 @@
       </c>
       <c r="M10" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>0</v>
+        <v>106.13</v>
       </c>
       <c r="N10" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>1000</v>
+        <v>893.87</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -11970,15 +11979,15 @@
       </c>
       <c r="L11" s="2">
         <f>SUM([budżet])</f>
-        <v>7856.7</v>
+        <v>8047.86</v>
       </c>
       <c r="M11" s="2">
         <f>SUM([wydatki])</f>
-        <v>5343.54</v>
+        <v>5461.03</v>
       </c>
       <c r="N11" s="2">
         <f>SUM([pozostało])</f>
-        <v>2513.16</v>
+        <v>2586.83</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -11994,6 +12003,9 @@
       <c r="D12" s="30" t="b">
         <v>1</v>
       </c>
+      <c r="F12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="42">
@@ -12009,12 +12021,18 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" t="s">
+        <v>239</v>
+      </c>
       <c r="K13" t="s">
         <v>49</v>
       </c>
       <c r="L13" s="2">
         <f>SUM(Przychody8[kwota])-Budżet7134[[#Totals],[budżet]]</f>
-        <v>1276.0500000000002</v>
+        <v>1084.8900000000003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12031,6 +12049,10 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F14" s="2">
+        <f>A16+A17</f>
+        <v>117.49</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="42">
@@ -12043,6 +12065,47 @@
         <v>177</v>
       </c>
       <c r="D15" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <f>-329.92+436.05</f>
+        <v>106.13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25">
+        <f>4.99+1.48+4.89</f>
+        <v>11.36</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -12059,7 +12122,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="596" activeTab="12"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="22149" windowHeight="12463" tabRatio="596" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="273">
   <si>
     <t>data</t>
   </si>
@@ -779,13 +779,112 @@
     <t>poznań nocleg</t>
   </si>
   <si>
-    <t>winność</t>
-  </si>
-  <si>
-    <t>dla Ł</t>
-  </si>
-  <si>
-    <t>dla N</t>
+    <t>bibeloty</t>
+  </si>
+  <si>
+    <t>H&amp;Y</t>
+  </si>
+  <si>
+    <t>J. Juzyszyn</t>
+  </si>
+  <si>
+    <t>zwrot kasy</t>
+  </si>
+  <si>
+    <t>spinka Jess</t>
+  </si>
+  <si>
+    <t>spinka i naszyjnik Mizukon</t>
+  </si>
+  <si>
+    <t>jedzenie Mizukon</t>
+  </si>
+  <si>
+    <t>Mizukon bilet + bolt</t>
+  </si>
+  <si>
+    <t>neurovit x2</t>
+  </si>
+  <si>
+    <t>do Poznania</t>
+  </si>
+  <si>
+    <t>Łukasz mobilet</t>
+  </si>
+  <si>
+    <t>pamiętka Poznań</t>
+  </si>
+  <si>
+    <t>biedronka Poznań</t>
+  </si>
+  <si>
+    <t>pączki Poznań</t>
+  </si>
+  <si>
+    <t>żabka Poznań</t>
+  </si>
+  <si>
+    <t>zwrot Mizukon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rozrywka </t>
+  </si>
+  <si>
+    <t>bilety nowe zoo</t>
+  </si>
+  <si>
+    <t>? Room36 Poznań</t>
+  </si>
+  <si>
+    <t>pamiętki Poznań</t>
+  </si>
+  <si>
+    <t>bilety linia turystyczna Poznań</t>
+  </si>
+  <si>
+    <t>z Poznania</t>
+  </si>
+  <si>
+    <t>jedzenie na stacji</t>
+  </si>
+  <si>
+    <t>neurovit x2 i lek</t>
+  </si>
+  <si>
+    <t>FAAŁSZ</t>
+  </si>
+  <si>
+    <t>doniczki</t>
+  </si>
+  <si>
+    <t>klawiatura i myszka</t>
+  </si>
+  <si>
+    <t>kurs Japońskiego</t>
+  </si>
+  <si>
+    <t>urlop Poznań, kurs japońskiego, zakupy na firmę (klawiatura, mysz)</t>
+  </si>
+  <si>
+    <t>Ł. Śmietanka</t>
+  </si>
+  <si>
+    <t>zwrot mobilet Poznań</t>
+  </si>
+  <si>
+    <t>mrówka</t>
+  </si>
+  <si>
+    <t>lookah - ametyst szczotka kama</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>mediaexpert - ciśnieniomierz, kabel</t>
+  </si>
+  <si>
+    <t>słoik</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1096,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1043,13 +1142,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="190">
+  <dxfs count="194">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -1067,6 +1168,62 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2080,6 +2237,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2090,6 +2248,82 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -2202,34 +2436,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -2286,181 +2492,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2469,6 +2500,15 @@
           <bgColor rgb="FFFFE7E7"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -4032,7 +4072,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="0,00 zł"/>
-    <tableColumn id="5" name="kwota" dataDxfId="188"/>
+    <tableColumn id="5" name="kwota" dataDxfId="192"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4045,7 +4085,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="141"/>
+    <tableColumn id="5" name="kwota" dataDxfId="145"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4058,14 +4098,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4075,14 +4115,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="134" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="138" tableBorderDxfId="137">
   <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="razy" dataDxfId="132"/>
-    <tableColumn id="2" name="kwota" dataDxfId="131"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="130"/>
-    <tableColumn id="4" name="na co" dataDxfId="129"/>
-    <tableColumn id="5" name="przyjemności" dataDxfId="128">
+    <tableColumn id="1" name="razy" dataDxfId="136"/>
+    <tableColumn id="2" name="kwota" dataDxfId="135"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="134"/>
+    <tableColumn id="4" name="na co" dataDxfId="133"/>
+    <tableColumn id="5" name="przyjemności" dataDxfId="132">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4091,15 +4131,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129" tableBorderDxfId="128">
   <autoFilter ref="A1:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="razy" dataDxfId="123"/>
-    <tableColumn id="2" name="kwota" dataDxfId="122"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="121"/>
-    <tableColumn id="4" name="na co" dataDxfId="120"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="119"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="118">
+    <tableColumn id="1" name="razy" dataDxfId="127"/>
+    <tableColumn id="2" name="kwota" dataDxfId="126"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="125"/>
+    <tableColumn id="4" name="na co" dataDxfId="124"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="123"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="122">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4112,7 +4152,7 @@
   <autoFilter ref="H1:K5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="117"/>
+    <tableColumn id="5" name="kwota" dataDxfId="121"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4125,14 +4165,14 @@
   <autoFilter ref="M1:P10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4146,7 +4186,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="109"/>
+    <tableColumn id="5" name="kwota" dataDxfId="113"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4155,14 +4195,14 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A1:E43"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="105"/>
-    <tableColumn id="2" name="kwota" dataDxfId="104"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="103"/>
-    <tableColumn id="4" name="na co" dataDxfId="102"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="101">
+    <tableColumn id="1" name="data" dataDxfId="109"/>
+    <tableColumn id="2" name="kwota" dataDxfId="108"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="107"/>
+    <tableColumn id="4" name="na co" dataDxfId="106"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="105">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4175,18 +4215,18 @@
   <autoFilter ref="L1:P10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kolumna1" dataDxfId="94"/>
+    <tableColumn id="5" name="Kolumna1" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4197,7 +4237,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="92"/>
+    <tableColumn id="5" name="kwota" dataDxfId="96"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4206,14 +4246,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="187" tableBorderDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="191" tableBorderDxfId="190">
   <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="185"/>
-    <tableColumn id="2" name="kwota" dataDxfId="184"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="183"/>
-    <tableColumn id="4" name="na co" dataDxfId="182"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="181">
+    <tableColumn id="1" name="data" dataDxfId="189"/>
+    <tableColumn id="2" name="kwota" dataDxfId="188"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="187"/>
+    <tableColumn id="4" name="na co" dataDxfId="186"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="185">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4222,14 +4262,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="A1:E49"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="88"/>
-    <tableColumn id="2" name="kwota" dataDxfId="87"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="86"/>
-    <tableColumn id="4" name="na co" dataDxfId="85"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="84">
+    <tableColumn id="1" name="data" dataDxfId="92"/>
+    <tableColumn id="2" name="kwota" dataDxfId="91"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="90"/>
+    <tableColumn id="4" name="na co" dataDxfId="89"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="88">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4242,14 +4282,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="5">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="4">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="3">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4259,11 +4299,11 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="F1:I3" totalsRowShown="0">
-  <autoFilter ref="F1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="F1:I5" totalsRowShown="0">
+  <autoFilter ref="F1:I5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="79"/>
+    <tableColumn id="5" name="kwota" dataDxfId="80"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4272,13 +4312,13 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D18" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
-  <autoFilter ref="A1:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D62" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="kwota" dataDxfId="75"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="74"/>
-    <tableColumn id="4" name="na co" dataDxfId="73"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="72">
+    <tableColumn id="2" name="kwota" dataDxfId="76"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="75"/>
+    <tableColumn id="4" name="na co" dataDxfId="74"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="73">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4291,14 +4331,14 @@
   <autoFilter ref="K1:N10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="2">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="10">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="1">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="9">
       <calculatedColumnFormula>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="0">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="8">
       <calculatedColumnFormula>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4308,11 +4348,11 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="F1:I3" totalsRowShown="0">
+  <autoFilter ref="F1:I3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="68"/>
+    <tableColumn id="5" name="kwota" dataDxfId="69"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4321,29 +4361,47 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:G3" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="64"/>
-    <tableColumn id="2" name="kwota" dataDxfId="63"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="62"/>
-    <tableColumn id="4" name="na co" dataDxfId="61"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="60"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:D12" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A1:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="kwota" dataDxfId="66"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="65"/>
+    <tableColumn id="4" name="na co" dataDxfId="64"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="11">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Budżet713436" displayName="Budżet713436" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="2">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</calculatedColumnFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="57"/>
+    <tableColumn id="5" name="kwota" dataDxfId="63"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4351,34 +4409,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="53"/>
-    <tableColumn id="2" name="kwota" dataDxfId="52"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="51"/>
-    <tableColumn id="4" name="na co" dataDxfId="50"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="49"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="48">
+    <tableColumn id="1" name="data" dataDxfId="59"/>
+    <tableColumn id="2" name="kwota" dataDxfId="58"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="57"/>
+    <tableColumn id="4" name="na co" dataDxfId="56"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="55"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="54">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="47"/>
+    <tableColumn id="7" name="stałe" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="46"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4387,14 +4432,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="177">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
       <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4404,29 +4449,11 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="42"/>
-    <tableColumn id="2" name="kwota" dataDxfId="41"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="40"/>
-    <tableColumn id="4" name="na co" dataDxfId="39"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="38"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="37">
-      <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="36"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
   <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="35"/>
+    <tableColumn id="5" name="kwota" dataDxfId="52"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4434,51 +4461,82 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="31"/>
-    <tableColumn id="2" name="kwota" dataDxfId="30"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="29"/>
-    <tableColumn id="4" name="na co" dataDxfId="28"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="27"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="26">
+    <tableColumn id="1" name="data" dataDxfId="48"/>
+    <tableColumn id="2" name="kwota" dataDxfId="47"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="46"/>
+    <tableColumn id="4" name="na co" dataDxfId="45"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="44"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="43">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="25"/>
+    <tableColumn id="7" name="stałe" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="41"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="data" dataDxfId="37"/>
+    <tableColumn id="2" name="kwota" dataDxfId="36"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="35"/>
+    <tableColumn id="4" name="na co" dataDxfId="34"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="33"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="32">
+      <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="stałe" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
   <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
     <tableColumn id="1" name="miesiąc"/>
-    <tableColumn id="5" name="Dochód" dataDxfId="24">
+    <tableColumn id="5" name="Dochód" dataDxfId="30">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki" dataDxfId="23">
+    <tableColumn id="4" name="Wydatki" dataDxfId="29">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="22" dataCellStyle="Procentowy">
+    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="28" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="21" dataCellStyle="Procentowy">
+    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="27" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="20" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="26" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="19" dataCellStyle="Procentowy">
+    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="25" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Oszczędności" dataDxfId="18">
+    <tableColumn id="2" name="Oszczędności" dataDxfId="24">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="17" dataCellStyle="Procentowy">
+    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="23" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4486,33 +4544,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A15:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="okres" dataDxfId="14"/>
-    <tableColumn id="2" name="Dochód" dataDxfId="13">
+    <tableColumn id="1" name="okres" dataDxfId="20"/>
+    <tableColumn id="2" name="Dochód" dataDxfId="19">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wydatki" dataDxfId="12">
+    <tableColumn id="3" name="Wydatki" dataDxfId="18">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="11" dataCellStyle="Procentowy">
+    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="17" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="10" dataCellStyle="Procentowy">
+    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="16" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="9">
+    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="15">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="8" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="14" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Oszczędności" dataDxfId="7">
+    <tableColumn id="8" name="Oszczędności" dataDxfId="13">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="6">
+    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="12">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4521,14 +4579,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172" tableBorderDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176" tableBorderDxfId="175">
   <autoFilter ref="A1:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="170"/>
-    <tableColumn id="2" name="kwota" dataDxfId="169"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="168"/>
-    <tableColumn id="4" name="na co" dataDxfId="167"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="166"/>
+    <tableColumn id="1" name="data" dataDxfId="174"/>
+    <tableColumn id="2" name="kwota" dataDxfId="173"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="172"/>
+    <tableColumn id="4" name="na co" dataDxfId="171"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4539,7 +4597,7 @@
   <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="165"/>
+    <tableColumn id="5" name="kwota" dataDxfId="169"/>
     <tableColumn id="2" name="źródło"/>
     <tableColumn id="3" name="na/za co"/>
   </tableColumns>
@@ -4552,14 +4610,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4573,7 +4631,7 @@
   <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="157">
+    <tableColumn id="5" name="kwota" dataDxfId="161">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="źródło"/>
@@ -4584,14 +4642,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155" tableBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159" tableBorderDxfId="158">
   <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="153"/>
-    <tableColumn id="2" name="kwota" dataDxfId="152"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="151"/>
-    <tableColumn id="4" name="na co" dataDxfId="150"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="149">
+    <tableColumn id="1" name="data" dataDxfId="157"/>
+    <tableColumn id="2" name="kwota" dataDxfId="156"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="155"/>
+    <tableColumn id="4" name="na co" dataDxfId="154"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="153">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4604,14 +4662,14 @@
   <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
       <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
       <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
       <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
@@ -4892,22 +4950,22 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" customWidth="1"/>
+    <col min="5" max="5" width="17.07421875" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" customWidth="1"/>
+    <col min="7" max="7" width="17.15234375" customWidth="1"/>
+    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.921875" customWidth="1"/>
+    <col min="12" max="12" width="14.61328125" customWidth="1"/>
+    <col min="13" max="13" width="16.15234375" customWidth="1"/>
+    <col min="14" max="14" width="11.921875" customWidth="1"/>
+    <col min="15" max="15" width="13.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5132,7 +5190,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="189" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5157,13 +5215,13 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.61328125" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="6" max="6" width="13.84375" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" customWidth="1"/>
+    <col min="10" max="10" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5240,10 +5298,10 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
@@ -5322,7 +5380,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
@@ -5397,21 +5455,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.15234375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.84375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.4609375" customWidth="1"/>
+    <col min="8" max="8" width="15.53515625" customWidth="1"/>
+    <col min="9" max="9" width="16.921875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5717,11 +5775,11 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(Przychody8[kwota])</f>
-        <v>9132.75</v>
+        <v>9284.75</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(Wydatki8[kwota])</f>
-        <v>5461.0299999999979</v>
+        <v>11189.669999999996</v>
       </c>
       <c r="D9" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
@@ -5741,11 +5799,14 @@
       </c>
       <c r="H9" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>3671.7200000000021</v>
+        <v>-1904.9199999999964</v>
       </c>
       <c r="I9" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.40203881634775968</v>
+        <v>-0.20516653652494643</v>
+      </c>
+      <c r="K9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5754,35 +5815,35 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(Przychody9[kwota])</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="C10" s="5">
         <f>SUM(Wydatki9[kwota])</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" cm="1">
-        <f t="array" ref="D10">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],NOT(Wydatki9[przyjemności]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f>SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0</v>
+        <v>5345.0199999999995</v>
+      </c>
+      <c r="D10" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],NOT(Wydatki9[przyjemności]),0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="5" t="e">
+        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>0</v>
+        <v>3654.9800000000005</v>
       </c>
       <c r="I10" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0</v>
+        <v>0.40610888888888896</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5937,11 +5998,11 @@
       </c>
       <c r="B16" s="12">
         <f>SUM(Rok[Dochód])</f>
-        <v>64557.5</v>
+        <v>73709.5</v>
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>56114.229999999996</v>
+        <v>67187.89</v>
       </c>
       <c r="D16" s="13" t="e">
         <f ca="1">SUM(Rok[Wydatki konieczne])</f>
@@ -5961,11 +6022,11 @@
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>8443.2700000000059</v>
+        <v>6521.6100000000079</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>0.13078681795298774</v>
+        <v>8.8477197647521794E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6035,21 +6096,21 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="4" max="4" width="17.61328125" customWidth="1"/>
+    <col min="6" max="6" width="13.84375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
-    <col min="16" max="16" width="16.36328125" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.07421875" customWidth="1"/>
+    <col min="13" max="13" width="12.61328125" customWidth="1"/>
+    <col min="14" max="14" width="12.84375" customWidth="1"/>
+    <col min="15" max="15" width="15.07421875" customWidth="1"/>
+    <col min="16" max="16" width="16.3828125" customWidth="1"/>
+    <col min="17" max="17" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6781,7 +6842,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6806,17 +6867,17 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.921875" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" customWidth="1"/>
+    <col min="4" max="4" width="14.61328125" customWidth="1"/>
+    <col min="5" max="5" width="15.84375" customWidth="1"/>
+    <col min="8" max="8" width="12.15234375" customWidth="1"/>
+    <col min="12" max="12" width="15.4609375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="14.1796875" customWidth="1"/>
+    <col min="14" max="15" width="14.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -7658,7 +7719,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7682,20 +7743,20 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.4609375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.07421875" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
+    <col min="14" max="14" width="14.07421875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.53515625" customWidth="1"/>
+    <col min="17" max="17" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8567,7 +8628,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8592,15 +8653,15 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.07421875" customWidth="1"/>
+    <col min="14" max="14" width="14.15234375" customWidth="1"/>
+    <col min="15" max="15" width="14.921875" customWidth="1"/>
+    <col min="16" max="16" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9649,7 +9710,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9673,18 +9734,18 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4609375" customWidth="1"/>
+    <col min="3" max="3" width="13.921875" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" customWidth="1"/>
+    <col min="12" max="12" width="12.15234375" customWidth="1"/>
+    <col min="13" max="13" width="14.53515625" customWidth="1"/>
+    <col min="14" max="14" width="14.4609375" customWidth="1"/>
+    <col min="15" max="15" width="15.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10598,7 +10659,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10622,19 +10683,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.84375" customWidth="1"/>
+    <col min="3" max="3" width="12.921875" customWidth="1"/>
+    <col min="4" max="4" width="16.15234375" customWidth="1"/>
+    <col min="7" max="7" width="12.61328125" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" customWidth="1"/>
+    <col min="10" max="10" width="15.3828125" customWidth="1"/>
+    <col min="12" max="12" width="13.61328125" customWidth="1"/>
+    <col min="13" max="13" width="12.07421875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11591,7 +11652,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11613,22 +11674,23 @@
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.921875" customWidth="1"/>
+    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53515625" customWidth="1"/>
+    <col min="7" max="7" width="11.921875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="12" max="12" width="14.61328125" customWidth="1"/>
+    <col min="13" max="13" width="13.921875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -11698,12 +11760,12 @@
         <v>44</v>
       </c>
       <c r="L2" s="2">
-        <f>A3+A4+A5</f>
-        <v>2827</v>
+        <f>A3+A4+A5+A6+A48</f>
+        <v>3603.06</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>2827</v>
+        <v>3603.06</v>
       </c>
       <c r="N2" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
@@ -11725,25 +11787,33 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>240</v>
+      </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="2">
-        <v>250</v>
+        <v>238.6</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>100</v>
+        <v>238.60000000000002</v>
       </c>
       <c r="N3" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="25">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>44</v>
@@ -11755,18 +11825,25 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>128</v>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44">
+        <v>40</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>252</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="2">
-        <v>2020.86</v>
+        <v>2108.98</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>2020.86</v>
+        <v>2108.98</v>
       </c>
       <c r="N4" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
@@ -11787,35 +11864,42 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>128</v>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44">
+        <v>40</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>267</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
       </c>
       <c r="L5" s="2">
-        <v>1500</v>
+        <v>2140.63</v>
       </c>
       <c r="M5" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>327.03999999999996</v>
+        <v>2140.6299999999992</v>
       </c>
       <c r="N5" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>1172.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="25">
-        <v>0</v>
+        <v>337.06</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="41" t="b">
+        <v>165</v>
+      </c>
+      <c r="D6" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11823,125 +11907,116 @@
         <v>41</v>
       </c>
       <c r="L6" s="2">
-        <v>100</v>
+        <v>270.66000000000003</v>
       </c>
       <c r="M6" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>0</v>
+        <v>270.65999999999997</v>
       </c>
       <c r="N6" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25">
-        <v>12</v>
+        <v>88.12</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D7" s="41" t="b">
         <f>FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>128</v>
       </c>
       <c r="K7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="2">
-        <v>200</v>
+        <v>554.84</v>
       </c>
       <c r="M7" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>0</v>
+        <v>554.83999999999992</v>
       </c>
       <c r="N7" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="25">
-        <v>19.989999999999998</v>
+        <v>12</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D8" s="41" t="b">
         <f>FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="2">
-        <v>100</v>
+        <v>1520</v>
       </c>
       <c r="M8" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>80</v>
+        <v>1520</v>
       </c>
       <c r="N8" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="25">
-        <f>18*0</f>
-        <v>0</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D9" s="41" t="b">
         <f>FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M9" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N9" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42">
-        <v>86.98</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="30" t="b">
+      <c r="A10" s="25">
+        <f>18*3</f>
+        <v>54</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="41" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11949,26 +12024,26 @@
         <v>14</v>
       </c>
       <c r="L10" s="2">
-        <v>1000</v>
+        <v>570.9</v>
       </c>
       <c r="M10" s="2">
         <f>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</f>
-        <v>106.13</v>
+        <v>570.9</v>
       </c>
       <c r="N10" s="2">
         <f>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</f>
-        <v>893.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="42">
-        <v>80</v>
+        <v>86.98</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="30" t="b">
         <f>FALSE()</f>
@@ -11979,133 +12054,763 @@
       </c>
       <c r="L11" s="2">
         <f>SUM([budżet])</f>
-        <v>8047.86</v>
+        <v>11157.67</v>
       </c>
       <c r="M11" s="2">
         <f>SUM([wydatki])</f>
-        <v>5461.03</v>
+        <v>11157.669999999998</v>
       </c>
       <c r="N11" s="2">
         <f>SUM([pozostało])</f>
-        <v>2586.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="42">
-        <v>71.73</v>
+        <v>80</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="D12" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>237</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="42">
-        <v>24.98</v>
+        <v>71.73</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D13" s="30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>49</v>
       </c>
       <c r="L13" s="2">
         <f>SUM(Przychody8[kwota])-Budżet7134[[#Totals],[budżet]]</f>
-        <v>1084.8900000000003</v>
+        <v>-1872.92</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="42">
-        <v>100</v>
+        <v>24.98</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="D14" s="30" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <f>A16+A17</f>
-        <v>117.49</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="42">
         <v>100</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="42">
+        <v>100</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+      <c r="D16" s="30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <f>-329.92+436.05</f>
         <v>106.13</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="25">
+      <c r="D17" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25">
         <f>4.99+1.48+4.89</f>
         <v>11.36</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
       <c r="D18" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>153.91999999999999</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="25">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="25">
+        <v>126.7</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25">
+        <v>94.98</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25">
+        <v>237.46</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="25">
+        <v>148.37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="25">
+        <v>40</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="25">
+        <v>70</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25">
+        <v>13</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25">
+        <v>199.06</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25">
+        <v>139.97999999999999</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="25">
+        <v>42.3</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="25">
+        <v>40</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="25">
+        <v>10</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="25">
+        <v>87.51</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="25">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="25">
+        <v>32</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="25">
+        <v>120</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="25">
+        <v>35</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="25">
+        <v>30</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="25">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25">
+        <v>42.3</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="25">
+        <v>11.4</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="25">
+        <v>130.68</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="25">
+        <v>20</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25">
+        <v>110.02</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="25">
+        <v>484.84</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="25">
+        <v>438</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="25">
+        <v>1440</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="25">
+        <v>20.61</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="25">
+        <v>2.99</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="25">
+        <v>73.03</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25">
+        <v>48.96</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="25">
+        <v>26.75</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="25">
+        <f>87.88-70</f>
+        <v>17.879999999999995</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="25">
+        <v>70</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="25">
+        <v>339.99</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="25">
+        <v>13.59</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="25">
+        <v>63.62</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="25">
+        <v>47.8</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="25">
+        <v>96.49</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -12122,7 +12827,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12141,118 +12846,399 @@
   <sheetPr>
     <tabColor rgb="FFF38D6D"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.765625" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" customWidth="1"/>
+    <col min="5" max="5" width="8.3046875" customWidth="1"/>
+    <col min="6" max="6" width="5.4609375" customWidth="1"/>
+    <col min="7" max="7" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.84375" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3828125" customWidth="1"/>
+    <col min="12" max="12" width="14.4609375" customWidth="1"/>
+    <col min="13" max="13" width="18.15234375" customWidth="1"/>
+    <col min="14" max="14" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="25">
+        <f>1500+128.32+392.54</f>
+        <v>2020.86</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
+        <v>9000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="23">
+        <v>45139</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
+        <f>A3+A4+A5+A6+A48</f>
+        <v>3165.06</v>
+      </c>
+      <c r="M2" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>3165.06</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>260</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>200</v>
+      </c>
+      <c r="M3" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="25">
+        <v>860</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2108.98</v>
+      </c>
+      <c r="M4" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>2108.98</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="25">
+        <v>1708</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M5" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>34.979999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>1665.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="25">
+        <v>337.06</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="25">
+        <v>88.12</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2">
+        <v>300</v>
+      </c>
+      <c r="M7" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="25">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="25">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="25">
+        <f>18*2</f>
+        <v>36</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2">
+        <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="25">
+        <v>2.99</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2">
+        <f>SUM([budżet])</f>
+        <v>7824.04</v>
+      </c>
+      <c r="M11" s="2">
+        <f>SUM([wydatki])</f>
+        <v>5345.0199999999995</v>
+      </c>
+      <c r="N11" s="2">
+        <f>SUM([pozostało])</f>
+        <v>2479.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2">
+        <f>SUM(Przychody8[kwota])-Budżet713436[[#Totals],[budżet]]</f>
+        <v>1460.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3">
@@ -12340,11 +13326,27 @@
       <c r="C44" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFBCECD"/>
+        <color rgb="FFFBFEBA"/>
+        <color rgb="FFCFF1CB"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVE\Desktop\simple-budget\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F416D-534B-4C54-AB7C-6093D6D854A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-111" yWindow="-111" windowWidth="22149" windowHeight="12463" tabRatio="596" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -25,9 +31,9 @@
     <definedName name="Budżet7">#REF!</definedName>
     <definedName name="stawka">III!$H$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,13 +50,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+      <extLst>
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="278">
   <si>
     <t>data</t>
   </si>
@@ -885,17 +891,32 @@
   </si>
   <si>
     <t>słoik</t>
+  </si>
+  <si>
+    <t>Szczecin-Niechorze</t>
+  </si>
+  <si>
+    <t>Niechorze kawiarnia</t>
+  </si>
+  <si>
+    <t>Niechorze obiad</t>
+  </si>
+  <si>
+    <t>NY marynarka</t>
+  </si>
+  <si>
+    <t>mikrofon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,7 +1117,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1136,39 +1157,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="194">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
+  <dxfs count="193">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1186,6 +1184,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1224,6 +1292,125 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2195,6 +2382,63 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2292,6 +2536,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2312,6 +2573,15 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2436,144 +2706,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2602,62 +2734,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -2712,16 +2788,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2931,16 +2997,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -3185,16 +3241,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3384,16 +3430,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3606,16 +3642,6 @@
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3828,16 +3854,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -4029,16 +4045,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4068,46 +4074,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="0,00 zł"/>
-    <tableColumn id="5" name="kwota" dataDxfId="192"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0,00 zł"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="kwota" dataDxfId="192"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="145"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="kwota" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+      <totalsRowFormula>SUM(Budżet4[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet4[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet4[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4115,14 +4121,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="138" tableBorderDxfId="137">
-  <autoFilter ref="A1:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="141" tableBorderDxfId="140">
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="razy" dataDxfId="136"/>
-    <tableColumn id="2" name="kwota" dataDxfId="135"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="134"/>
-    <tableColumn id="4" name="na co" dataDxfId="133"/>
-    <tableColumn id="5" name="przyjemności" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="razy" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="kwota" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="kategoria" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="na co" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="przyjemności" dataDxfId="135">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4131,15 +4137,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129" tableBorderDxfId="128">
-  <autoFilter ref="A1:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132">
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="razy" dataDxfId="127"/>
-    <tableColumn id="2" name="kwota" dataDxfId="126"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="125"/>
-    <tableColumn id="4" name="na co" dataDxfId="124"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="123"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="razy" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="kwota" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="kategoria" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="na co" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="gdzie" dataDxfId="127"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="przyjemności" dataDxfId="126">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4148,33 +4154,33 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
-  <autoFilter ref="H1:K5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
+  <autoFilter ref="H1:K5" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="121"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="kwota" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
-  <autoFilter ref="M1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
+  <autoFilter ref="M1:P10" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
+      <totalsRowFormula>SUM(Budżet5[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet5[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet5[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4182,27 +4188,27 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="113"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="kwota" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
-  <autoFilter ref="A1:E43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="109"/>
-    <tableColumn id="2" name="kwota" dataDxfId="108"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="107"/>
-    <tableColumn id="4" name="na co" dataDxfId="106"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="data" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="kwota" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="kategoria" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="na co" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="przyjemności" dataDxfId="110">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4211,49 +4217,49 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
-  <autoFilter ref="L1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
+  <autoFilter ref="L1:P10" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
+      <totalsRowFormula>SUM(Budżet6[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet6[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet6[pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kolumna1" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="96"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="191" tableBorderDxfId="190">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="191" tableBorderDxfId="190">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="189"/>
-    <tableColumn id="2" name="kwota" dataDxfId="188"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="187"/>
-    <tableColumn id="4" name="na co" dataDxfId="186"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="data" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="kwota" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="kategoria" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="na co" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="przyjemności" dataDxfId="185">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4262,14 +4268,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
-  <autoFilter ref="A1:E49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
+  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="92"/>
-    <tableColumn id="2" name="kwota" dataDxfId="91"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="90"/>
-    <tableColumn id="4" name="na co" dataDxfId="89"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="94">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4278,20 +4284,20 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
+      <totalsRowFormula>SUM(Budżet71[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet71[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet71[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4299,26 +4305,26 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="F1:I5" totalsRowShown="0">
-  <autoFilter ref="F1:I5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Przychody8" displayName="Przychody8" ref="F1:I5" totalsRowShown="0">
+  <autoFilter ref="F1:I5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="80"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D62" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
-  <autoFilter ref="A1:D62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:D62" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+  <autoFilter ref="A1:D62" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="kwota" dataDxfId="76"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="75"/>
-    <tableColumn id="4" name="na co" dataDxfId="74"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="80">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4327,20 +4333,20 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
-  <autoFilter ref="K1:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N10" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="10">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+      <totalsRowFormula>SUM(Budżet7134[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet7134[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet7134[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4348,26 +4354,26 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="F1:I3" totalsRowShown="0">
-  <autoFilter ref="F1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Przychody9" displayName="Przychody9" ref="F1:I3" totalsRowShown="0">
+  <autoFilter ref="F1:I3" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="69"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="kwota" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:D12" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:D24" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="kwota" dataDxfId="66"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="65"/>
-    <tableColumn id="4" name="na co" dataDxfId="64"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="kwota" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="kategoria" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="na co" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="przyjemności" dataDxfId="12">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4376,20 +4382,20 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Budżet713436" displayName="Budżet713436" ref="K1:N11" totalsRowCount="1">
-  <autoFilter ref="K1:N11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Budżet713436" displayName="Budżet713436" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N10" xr:uid="{00000000-0009-0000-0100-000023000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="2">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="11">
+      <totalsRowFormula>SUM(Budżet713436[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="10">
       <calculatedColumnFormula>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet713436[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="9">
       <calculatedColumnFormula>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet713436[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4397,51 +4403,51 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="63"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="59"/>
-    <tableColumn id="2" name="kwota" dataDxfId="58"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="57"/>
-    <tableColumn id="4" name="na co" dataDxfId="56"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="55"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="60">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
+      <totalsRowFormula>SUM(Budżet1[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
       <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet1[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet1[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4449,94 +4455,94 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="52"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="48"/>
-    <tableColumn id="2" name="kwota" dataDxfId="47"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="46"/>
-    <tableColumn id="4" name="na co" dataDxfId="45"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="44"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="49">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="41"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="kwota" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="data" dataDxfId="37"/>
-    <tableColumn id="2" name="kwota" dataDxfId="36"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="35"/>
-    <tableColumn id="4" name="na co" dataDxfId="34"/>
-    <tableColumn id="5" name="gdzie" dataDxfId="33"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="data" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="kwota" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="kategoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="na co" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="gdzie" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="przyjemności" dataDxfId="38">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="stałe" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="stałe" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="miesiąc"/>
-    <tableColumn id="5" name="Dochód" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="miesiąc"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="Dochód" dataDxfId="36">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki" dataDxfId="29">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Wydatki" dataDxfId="35">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="28" dataCellStyle="Procentowy">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="Wydatki konieczne" dataDxfId="34" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="27" dataCellStyle="Procentowy">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2100-000009000000}" name="Wydatki konieczne [%]" dataDxfId="33" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="26" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Wydatki przyjemności" dataDxfId="32" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="25" dataCellStyle="Procentowy">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-2100-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="31" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Oszczędności" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Oszczędności" dataDxfId="30">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="23" dataCellStyle="Procentowy">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Oszczędności [%]" dataDxfId="29" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4545,32 +4551,32 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A15:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A15:I16" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="okres" dataDxfId="20"/>
-    <tableColumn id="2" name="Dochód" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="okres" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Dochód" dataDxfId="25">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wydatki" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Wydatki" dataDxfId="24">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="17" dataCellStyle="Procentowy">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Wydatki konieczne" dataDxfId="23" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="16" dataCellStyle="Procentowy">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="Wydatki konieczne [%]" dataDxfId="22" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="Wydatki przyjemności" dataDxfId="21">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="14" dataCellStyle="Procentowy">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="20" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Oszczędności" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2200-000008000000}" name="Oszczędności" dataDxfId="19">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2200-000009000000}" name="Oszczędności [%]" dataDxfId="18">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4579,47 +4585,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176" tableBorderDxfId="175">
-  <autoFilter ref="A1:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="176">
+  <autoFilter ref="A1:E33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="174"/>
-    <tableColumn id="2" name="kwota" dataDxfId="173"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="172"/>
-    <tableColumn id="4" name="na co" dataDxfId="171"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="data" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="kwota" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="kategoria" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="na co" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="przyjemności" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="169"/>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="kwota" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="168">
+      <totalsRowFormula>SUM(Budżet2[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet2[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet2[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4627,29 +4633,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data"/>
-    <tableColumn id="5" name="kwota" dataDxfId="161">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="kwota" dataDxfId="163">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="źródło"/>
-    <tableColumn id="3" name="na/za co"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="źródło"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159" tableBorderDxfId="158">
-  <autoFilter ref="A1:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161" tableBorderDxfId="160">
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="data" dataDxfId="157"/>
-    <tableColumn id="2" name="kwota" dataDxfId="156"/>
-    <tableColumn id="3" name="kategoria" dataDxfId="155"/>
-    <tableColumn id="4" name="na co" dataDxfId="154"/>
-    <tableColumn id="6" name="przyjemności" dataDxfId="153">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="data" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="kwota" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="kategoria" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="na co" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="przyjemności" dataDxfId="155">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4658,20 +4664,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
-      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
+      <totalsRowFormula>SUM(Budżet3[budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet3[wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM(Budżet3[pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4933,14 +4939,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4950,25 +4956,25 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" customWidth="1"/>
-    <col min="5" max="5" width="17.07421875" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" customWidth="1"/>
-    <col min="7" max="7" width="17.15234375" customWidth="1"/>
-    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.921875" customWidth="1"/>
-    <col min="12" max="12" width="14.61328125" customWidth="1"/>
-    <col min="13" max="13" width="16.15234375" customWidth="1"/>
-    <col min="14" max="14" width="11.921875" customWidth="1"/>
-    <col min="15" max="15" width="13.84375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="L3" t="s">
@@ -5050,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>56</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
         <v>41</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L7" t="s">
         <v>42</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>45</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
         <v>13</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>14</v>
       </c>
@@ -5162,24 +5168,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet1[budżet])</f>
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet1[wydatki])</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <f>SUM(Budżet1[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>49</v>
       </c>
@@ -5190,7 +5196,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="193" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5205,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFE57F97"/>
   </sheetPr>
@@ -5215,16 +5221,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.61328125" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" customWidth="1"/>
-    <col min="6" max="6" width="13.84375" customWidth="1"/>
-    <col min="9" max="9" width="11.3828125" customWidth="1"/>
-    <col min="10" max="10" width="12.53515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5270,7 +5276,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5291,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC986DE"/>
   </sheetPr>
@@ -5301,9 +5307,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5349,7 +5355,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5370,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF948CE0"/>
   </sheetPr>
@@ -5380,9 +5386,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5428,7 +5434,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5449,7 +5455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5459,20 +5465,20 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.15234375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.84375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.4609375" customWidth="1"/>
-    <col min="8" max="8" width="15.53515625" customWidth="1"/>
-    <col min="9" max="9" width="16.921875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>0.338629066780822</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>0.28509230717603812</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>0.14568628826679766</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -5743,19 +5749,19 @@
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" ref="D8">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],NOT(Wydatki7[przyjemności]),0))</f>
-        <v>6770.3600000000006</v>
+        <v>6776.35</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0.76112510117816368</v>
-      </c>
-      <c r="F8" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>0.76179849806637301</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki7[kwota],Wydatki7[przyjemności],0))</f>
+        <v>2118.85</v>
+      </c>
+      <c r="G8" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.23820150193362713</v>
       </c>
       <c r="H8" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
@@ -5769,7 +5775,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5782,20 +5788,20 @@
         <v>11189.669999999996</v>
       </c>
       <c r="D9" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
-        <v>#NAME?</v>
+        <f t="array" ref="D9">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],NOT(Wydatki8[przyjemności]),0))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E9" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],Wydatki8[przyjemności],0))</f>
-        <v>#NAME?</v>
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki8[kwota],Wydatki8[przyjemności],0))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G9" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
@@ -5809,44 +5815,44 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>SUM(Przychody9[kwota])</f>
-        <v>9000</v>
+        <v>9065.1</v>
       </c>
       <c r="C10" s="5">
         <f>SUM(Wydatki9[kwota])</f>
-        <v>5345.0199999999995</v>
-      </c>
-      <c r="D10" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],NOT(Wydatki9[przyjemności]),0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="5" t="e">
-        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="3" t="e">
-        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <v>6683.53</v>
+      </c>
+      <c r="D10" s="5" cm="1">
+        <f t="array" ref="D10">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],NOT(Wydatki9[przyjemności]),0))</f>
+        <v>6429.85</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>0.96204400967752079</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
+        <v>253.67999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>3.7955990322479288E-2</v>
       </c>
       <c r="H10" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>3654.9800000000005</v>
+        <v>2381.5700000000006</v>
       </c>
       <c r="I10" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.40610888888888896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.26271855798612265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5883,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5957,13 +5963,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
@@ -5992,85 +5998,85 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="12">
         <f>SUM(Rok[Dochód])</f>
-        <v>73709.5</v>
+        <v>73774.600000000006</v>
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>67187.89</v>
+        <v>68526.399999999994</v>
       </c>
       <c r="D16" s="13" t="e">
-        <f ca="1">SUM(Rok[Wydatki konieczne])</f>
-        <v>#NAME?</v>
+        <f>SUM(Rok[Wydatki konieczne])</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E16" s="5" t="e">
-        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F16" s="12" t="e">
-        <f ca="1">SUM(Rok[Wydatki przyjemności])</f>
-        <v>#NAME?</v>
+        <f>SUM(Rok[Wydatki przyjemności])</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G16" s="5" t="e">
-        <f ca="1">IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
-        <v>#NAME?</v>
+        <f>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>6521.6100000000079</v>
+        <v>5248.200000000008</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>8.8477197647521794E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>7.1138305053500897E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
     </row>
@@ -6086,7 +6092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF99E5E9"/>
   </sheetPr>
@@ -6096,24 +6102,24 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3828125" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" customWidth="1"/>
-    <col min="4" max="4" width="17.61328125" customWidth="1"/>
-    <col min="6" max="6" width="13.84375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.07421875" customWidth="1"/>
-    <col min="13" max="13" width="12.61328125" customWidth="1"/>
-    <col min="14" max="14" width="12.84375" customWidth="1"/>
-    <col min="15" max="15" width="15.07421875" customWidth="1"/>
-    <col min="16" max="16" width="16.3828125" customWidth="1"/>
-    <col min="17" max="17" width="12.07421875" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>578.9</v>
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>92.4</v>
@@ -6233,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1024.56</v>
@@ -6272,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>260</v>
@@ -6304,7 +6310,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>296.02</v>
@@ -6335,7 +6341,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>2085.06</f>
@@ -6368,7 +6374,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>50</v>
@@ -6400,7 +6406,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>200</v>
@@ -6432,7 +6438,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>50</v>
@@ -6464,7 +6470,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>34.61</v>
@@ -6483,21 +6489,21 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet2[budżet])</f>
         <v>6179.85</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet2[wydatki])</f>
         <v>6179.85</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
+        <f>SUM(Budżet2[pozostało])</f>
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>127.47</v>
@@ -6513,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>36</v>
@@ -6536,7 +6542,7 @@
         <v>3164.1499999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>132.63999999999999</v>
@@ -6552,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>59.98</v>
@@ -6567,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>8</v>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>32.700000000000003</v>
@@ -6598,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>62.1</v>
@@ -6613,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>51.59</v>
@@ -6628,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>62.1</v>
@@ -6643,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>60.91</v>
@@ -6658,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>48.54</v>
@@ -6673,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>132.4</v>
@@ -6688,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>107.42</v>
@@ -6703,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>5.99</v>
@@ -6718,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>70.95</v>
@@ -6733,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27">
         <v>163.29</v>
@@ -6748,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28">
         <v>63.24</v>
@@ -6763,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>94.98</v>
@@ -6778,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>151</v>
@@ -6793,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -6808,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>12</v>
@@ -6823,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -6842,7 +6848,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,7 +6863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7CDEC4"/>
   </sheetPr>
@@ -6867,20 +6873,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.921875" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="3" width="13.07421875" customWidth="1"/>
-    <col min="4" max="4" width="14.61328125" customWidth="1"/>
-    <col min="5" max="5" width="15.84375" customWidth="1"/>
-    <col min="8" max="8" width="12.15234375" customWidth="1"/>
-    <col min="12" max="12" width="15.4609375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="14.15234375" customWidth="1"/>
+    <col min="14" max="15" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>1009</v>
@@ -6961,7 +6967,7 @@
         <v>-4747</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -7002,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -7032,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -7062,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>8</v>
@@ -7092,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>18*4</f>
@@ -7123,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>374.72</v>
@@ -7153,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>100</v>
@@ -7183,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>0</v>
@@ -7213,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>75.81</v>
@@ -7232,19 +7238,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet3[budżet])</f>
         <v>6338.17</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet3[wydatki])</f>
         <v>11085.17</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
+        <f>SUM(Budżet3[pozostało])</f>
         <v>-4747</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>19.989999999999998</v>
@@ -7260,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>98.98</v>
@@ -7283,7 +7289,7 @@
         <v>1598.0299999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>231.97</v>
@@ -7299,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>294.79000000000002</v>
@@ -7314,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>109.03</v>
@@ -7330,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>247.5</v>
@@ -7346,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>78.36</v>
@@ -7362,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>7.99</v>
@@ -7378,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>4800</v>
@@ -7394,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>89.98</v>
@@ -7410,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>7.99</v>
@@ -7426,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>80.680000000000007</v>
@@ -7442,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>78</v>
@@ -7458,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>18</v>
@@ -7474,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>134.37</v>
@@ -7490,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>94.69</v>
@@ -7505,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>46.5</v>
@@ -7520,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>105</v>
@@ -7536,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
@@ -7554,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>110.42</v>
@@ -7588,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="6">
         <v>2.29</v>
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>66.569999999999993</v>
@@ -7620,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="6">
         <v>165.95</v>
@@ -7636,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>31.48</v>
@@ -7652,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37">
         <v>65.17</v>
@@ -7668,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="6">
         <v>116.6</v>
@@ -7684,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="6">
         <v>229.32</v>
@@ -7700,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -7719,7 +7725,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7733,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF9BD9A4"/>
   </sheetPr>
@@ -7743,23 +7749,23 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.921875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.4609375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.07421875" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3828125" customWidth="1"/>
-    <col min="14" max="14" width="14.07421875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.53515625" customWidth="1"/>
-    <col min="17" max="17" width="17.84375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>105</v>
       </c>
@@ -7802,7 +7808,7 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>970.21</v>
@@ -7846,7 +7852,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>280</v>
@@ -7891,7 +7897,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>969</v>
@@ -7926,7 +7932,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="25">
         <v>1864</v>
@@ -7960,7 +7966,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="25">
         <v>12</v>
@@ -7994,7 +8000,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>50</v>
@@ -8028,7 +8034,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -8065,7 +8071,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="25">
         <v>357.96</v>
@@ -8099,7 +8105,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>104.81</v>
@@ -8132,7 +8138,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>13.2</v>
@@ -8151,19 +8157,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet4[budżet])</f>
         <v>7456.38</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet4[wydatki])</f>
         <v>7456.38</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <f>SUM(Budżet4[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>100</v>
@@ -8178,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>42</v>
@@ -8200,7 +8206,7 @@
         <v>2973.4700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>387.9</v>
@@ -8216,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>39.99</v>
@@ -8232,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>72.95</v>
@@ -8248,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>242.43</v>
@@ -8264,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>19.989999999999998</v>
@@ -8279,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -8294,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>34.869999999999997</v>
@@ -8310,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>63.89</v>
@@ -8326,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>300</v>
@@ -8342,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>58.99</v>
@@ -8357,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>330.2</v>
@@ -8372,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>39.520000000000003</v>
@@ -8388,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>79.959999999999994</v>
@@ -8404,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>24.99</v>
@@ -8420,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>10.48</v>
@@ -8436,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>63.54</v>
@@ -8452,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <v>47.8</v>
@@ -8467,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>46.48</v>
@@ -8483,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>90.96</v>
@@ -8498,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>194.32</v>
@@ -8514,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>155</v>
@@ -8530,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>65</v>
@@ -8545,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>40.799999999999997</v>
@@ -8560,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>11</v>
@@ -8576,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>56.46</v>
@@ -8592,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>112.68</v>
@@ -8608,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -8628,7 +8634,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8643,7 +8649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB7D985"/>
   </sheetPr>
@@ -8653,18 +8659,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.07421875" customWidth="1"/>
-    <col min="14" max="14" width="14.15234375" customWidth="1"/>
-    <col min="15" max="15" width="14.921875" customWidth="1"/>
-    <col min="16" max="16" width="14.61328125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>631</v>
@@ -8752,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -8793,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -8836,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -8879,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -8916,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>1344</v>
@@ -8947,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="25">
         <v>320</v>
@@ -8978,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9">
         <v>278.77999999999997</v>
@@ -9010,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>77</v>
@@ -9042,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>75.81</v>
@@ -9063,19 +9069,19 @@
         <v>48</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet5[budżet])</f>
         <v>7305.92</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet5[wydatki])</f>
         <v>7305.92</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <f>SUM(Budżet5[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>55.95</v>
@@ -9093,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>114.09</v>
@@ -9119,7 +9125,7 @@
         <v>1245.8799999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>368.2</v>
@@ -9137,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>49.27</v>
@@ -9156,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>48.93</v>
@@ -9175,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>58.23</v>
@@ -9194,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>7</v>
@@ -9210,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>17.53</v>
@@ -9229,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>84.93</v>
@@ -9248,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>104</v>
@@ -9266,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>177.99</v>
@@ -9284,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>19.989999999999998</v>
@@ -9300,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>104.98</v>
@@ -9319,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>55.97</v>
@@ -9338,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>45.49</v>
@@ -9357,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>60.45</v>
@@ -9376,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>60.79</v>
@@ -9395,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>59.99</v>
@@ -9413,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <f>19.5*2</f>
@@ -9430,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>40</v>
@@ -9448,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>15.76</v>
@@ -9467,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>16</v>
@@ -9485,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>60</v>
@@ -9503,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>96.75</v>
@@ -9522,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>19.5</v>
@@ -9541,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>108.67</v>
@@ -9559,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>80</v>
@@ -9577,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>56</v>
@@ -9596,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="25">
         <v>46.58</v>
@@ -9615,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="25">
         <v>236.99</v>
@@ -9633,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="25">
         <v>5</v>
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="25">
         <v>10</v>
@@ -9669,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="25">
         <v>77.28</v>
@@ -9687,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -9710,7 +9716,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9724,7 +9730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
@@ -9734,21 +9740,21 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4609375" customWidth="1"/>
-    <col min="3" max="3" width="13.921875" customWidth="1"/>
-    <col min="4" max="4" width="17.53515625" customWidth="1"/>
-    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4609375" customWidth="1"/>
-    <col min="12" max="12" width="12.15234375" customWidth="1"/>
-    <col min="13" max="13" width="14.53515625" customWidth="1"/>
-    <col min="14" max="14" width="14.4609375" customWidth="1"/>
-    <col min="15" max="15" width="15.3828125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9792,7 +9798,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <v>240</v>
@@ -9836,7 +9842,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -9876,7 +9882,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>194</v>
@@ -9916,7 +9922,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1809</v>
@@ -9947,7 +9953,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <f>2*19.5</f>
@@ -9978,7 +9984,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -10009,7 +10015,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -10039,7 +10045,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
         <f>18*5</f>
@@ -10071,7 +10077,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="25">
         <v>25</v>
@@ -10101,7 +10107,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="25">
         <v>50</v>
@@ -10120,19 +10126,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet6[budżet])</f>
         <v>7217.7</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet6[wydatki])</f>
         <v>9336.7000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
+        <f>SUM(Budżet6[pozostało])</f>
         <v>-2119</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>969</v>
@@ -10148,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>128</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>2796.2500000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <f>1500+128.32+392.54</f>
@@ -10190,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <v>6.59</v>
@@ -10206,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>139.59</v>
@@ -10222,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>100</v>
@@ -10238,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>11</v>
@@ -10253,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>13.6</v>
@@ -10269,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>53.62</v>
@@ -10285,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>140</v>
@@ -10300,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>8.8800000000000008</v>
@@ -10316,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>27.98</v>
@@ -10332,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>39.979999999999997</v>
@@ -10348,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>199.98</v>
@@ -10364,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>140.96</v>
@@ -10380,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>112.34</v>
@@ -10396,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>21.68</v>
@@ -10412,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>13.39</v>
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>387.5</v>
@@ -10444,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="25">
         <v>111.44</v>
@@ -10460,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>78.47</v>
@@ -10476,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>9.58</v>
@@ -10492,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>136.79</v>
@@ -10507,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>1344</v>
@@ -10523,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>250</v>
@@ -10539,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>13</v>
@@ -10554,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>214.36</v>
@@ -10570,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>8.89</v>
@@ -10585,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <v>140</v>
@@ -10600,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="25">
         <v>107.98</v>
@@ -10616,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="25">
         <v>87.23</v>
@@ -10632,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="25">
         <v>13</v>
@@ -10659,7 +10665,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10673,7 +10679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10683,22 +10689,22 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.84375" customWidth="1"/>
-    <col min="3" max="3" width="12.921875" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" customWidth="1"/>
-    <col min="7" max="7" width="12.61328125" customWidth="1"/>
-    <col min="8" max="8" width="12.84375" customWidth="1"/>
-    <col min="9" max="9" width="14.4609375" customWidth="1"/>
-    <col min="10" max="10" width="15.3828125" customWidth="1"/>
-    <col min="12" max="12" width="13.61328125" customWidth="1"/>
-    <col min="13" max="13" width="12.07421875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.07421875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10739,7 +10745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <f>1500+128.32+392.54</f>
@@ -10781,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>260</v>
@@ -10820,15 +10826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>859</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="4" t="s">
         <v>217</v>
       </c>
       <c r="E4" s="27" t="b">
@@ -10850,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1708</v>
@@ -10858,7 +10864,7 @@
       <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="35" t="b">
@@ -10880,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <v>0</v>
@@ -10909,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -10939,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -10969,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
         <f>18*6</f>
@@ -11000,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
@@ -11021,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
@@ -11031,19 +11037,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet71[budżet])</f>
         <v>8895.2000000000007</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet71[wydatki])</f>
         <v>8895.2000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <f>SUM(Budżet71[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>0</v>
@@ -11058,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="25">
         <v>260</v>
@@ -11080,7 +11086,7 @@
         <v>253.75</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <v>145</v>
@@ -11095,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <f>288.79-B14</f>
@@ -11112,45 +11118,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>107</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E16" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>140.99</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E17" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>41.97</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>216</v>
       </c>
       <c r="E18" s="27" t="b">
@@ -11158,15 +11164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>43.59</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="27" t="b">
@@ -11174,15 +11180,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>117.5</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="27" t="b">
@@ -11193,15 +11199,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>93.14</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="38" t="s">
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="27" t="b">
@@ -11212,45 +11218,45 @@
         <v>329.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>108</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>19.5</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>3.6</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E24" s="27" t="b">
@@ -11258,30 +11264,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>35</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E25" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>7.99</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E26" s="27" t="b">
@@ -11289,30 +11295,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>53</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E27" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>52</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E28" s="27" t="b">
@@ -11320,30 +11326,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>5.4</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E29" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="38" t="s">
+      <c r="C30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E30" s="27" t="b">
@@ -11351,46 +11357,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
-      <c r="B31" s="39">
+      <c r="B31" s="6">
         <f>19*2</f>
         <v>38</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E31" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>69</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E32" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>210.76</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E33" s="27" t="b">
@@ -11398,15 +11404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>260.76</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="38" t="s">
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="27" t="b">
@@ -11414,15 +11420,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>47.99</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="27" t="b">
@@ -11430,15 +11436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>194.22</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="27" t="b">
@@ -11446,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>59.34</v>
@@ -11462,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>91.19</v>
@@ -11478,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>13.46</v>
@@ -11494,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <f>1706.4-329.92</f>
@@ -11510,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="25">
         <v>20</v>
@@ -11525,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="25">
         <v>25.98</v>
@@ -11540,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="25">
         <v>15.39</v>
@@ -11555,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="25">
         <v>20</v>
@@ -11570,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
       <c r="B45" s="25">
         <v>35</v>
@@ -11585,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="25">
         <v>15.11</v>
@@ -11600,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="25">
         <v>10</v>
@@ -11615,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="25">
         <v>25</v>
@@ -11630,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -11652,12 +11658,12 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl"/>
+    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -11670,7 +11676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
@@ -11680,20 +11686,20 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.921875" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.53515625" customWidth="1"/>
-    <col min="7" max="7" width="11.921875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.61328125" customWidth="1"/>
-    <col min="13" max="13" width="13.921875" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.15234375" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <f>1500+128.32+392.54</f>
         <v>2020.86</v>
@@ -11772,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>260</v>
       </c>
@@ -11811,11 +11817,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>860</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -11825,14 +11831,13 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44">
+      <c r="G4" s="2">
         <v>40</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" t="s">
         <v>252</v>
       </c>
       <c r="K4" t="s">
@@ -11850,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1708</v>
       </c>
@@ -11860,18 +11865,17 @@
       <c r="C5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44">
+      <c r="D5" s="35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>40</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" t="s">
         <v>267</v>
       </c>
       <c r="K5" t="s">
@@ -11889,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>337.06</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>88.12</v>
       </c>
@@ -11928,7 +11932,7 @@
       <c r="C7" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="41" t="b">
+      <c r="D7" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11947,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>12</v>
       </c>
@@ -11957,7 +11961,7 @@
       <c r="C8" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="41" t="b">
+      <c r="D8" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -11976,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -11986,7 +11990,7 @@
       <c r="C9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="41" t="b">
+      <c r="D9" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <f>18*3</f>
         <v>54</v>
@@ -12016,7 +12020,7 @@
       <c r="C10" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="41" t="b">
+      <c r="D10" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -12035,8 +12039,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="42">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
         <v>86.98</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -12053,20 +12057,20 @@
         <v>48</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM([budżet])</f>
+        <f>SUM(Budżet7134[budżet])</f>
         <v>11157.67</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([wydatki])</f>
+        <f>SUM(Budżet7134[wydatki])</f>
         <v>11157.669999999998</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="42">
+        <f>SUM(Budżet7134[pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
         <v>80</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -12080,8 +12084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="42">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
         <v>71.73</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -12101,8 +12105,8 @@
         <v>-1872.92</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="42">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
         <v>24.98</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -12117,8 +12121,8 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="42">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
         <v>100</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -12132,8 +12136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="42">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
         <v>100</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -12147,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>-329.92+436.05</f>
         <v>106.13</v>
@@ -12162,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <f>4.99+1.48+4.89</f>
         <v>11.36</v>
@@ -12178,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>153.91999999999999</v>
       </c>
@@ -12193,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>19.170000000000002</v>
       </c>
@@ -12207,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>126.7</v>
       </c>
@@ -12222,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>94.98</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>237.46</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>148.37</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>40</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>70</v>
       </c>
@@ -12294,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>13</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>14</v>
@@ -12320,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>199.06</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>139.97999999999999</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>42.3</v>
       </c>
@@ -12365,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>40</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>10</v>
       </c>
@@ -12394,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>87.51</v>
       </c>
@@ -12409,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>12.5</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>77.819999999999993</v>
       </c>
@@ -12438,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>32</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>120</v>
       </c>
@@ -12467,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>35</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>30</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>19.739999999999998</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>42.3</v>
       </c>
@@ -12525,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>11.4</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>130.68</v>
       </c>
@@ -12554,7 +12558,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>20</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>110.02</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>484.84</v>
       </c>
@@ -12598,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>438</v>
       </c>
@@ -12613,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>1440</v>
       </c>
@@ -12628,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>20.61</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>2.99</v>
       </c>
@@ -12658,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>73.03</v>
       </c>
@@ -12673,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>48.96</v>
       </c>
@@ -12687,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>26.75</v>
       </c>
@@ -12702,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <f>87.88-70</f>
         <v>17.879999999999995</v>
@@ -12717,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>70</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>339.99</v>
       </c>
@@ -12747,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>13.59</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>63.62</v>
       </c>
@@ -12777,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>47.8</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>96.49</v>
       </c>
@@ -12806,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
@@ -12827,7 +12831,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12842,34 +12846,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF38D6D"/>
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.07421875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.765625" customWidth="1"/>
-    <col min="4" max="4" width="20.3828125" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" customWidth="1"/>
-    <col min="6" max="6" width="5.4609375" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.84375" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3828125" customWidth="1"/>
-    <col min="12" max="12" width="14.4609375" customWidth="1"/>
-    <col min="13" max="13" width="18.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.53515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -12907,7 +12911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <f>1500+128.32+392.54</f>
         <v>2020.86</v>
@@ -12924,7 +12928,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2">
-        <v>9000</v>
+        <v>9065.1</v>
       </c>
       <c r="H2" t="s">
         <v>231</v>
@@ -12936,19 +12940,18 @@
         <v>44</v>
       </c>
       <c r="L2" s="2">
-        <f>A3+A4+A5+A6+A48</f>
-        <v>3165.06</v>
+        <v>3604.06</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>3165.06</v>
+        <v>3604.06</v>
       </c>
       <c r="N2" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>260</v>
       </c>
@@ -12972,18 +12975,18 @@
       </c>
       <c r="M3" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>36</v>
+        <v>73.5</v>
       </c>
       <c r="N3" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>860</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -13008,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1708</v>
       </c>
@@ -13018,7 +13021,7 @@
       <c r="C5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="41" t="b">
+      <c r="D5" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -13026,18 +13029,18 @@
         <v>56</v>
       </c>
       <c r="L5" s="2">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M5" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>34.979999999999997</v>
+        <v>662.81</v>
       </c>
       <c r="N5" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>1665.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>837.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>337.06</v>
       </c>
@@ -13066,7 +13069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>88.12</v>
       </c>
@@ -13076,26 +13079,29 @@
       <c r="C7" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D7" s="35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
       </c>
       <c r="K7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M7" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>0</v>
+        <v>120.2</v>
       </c>
       <c r="N7" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>379.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>12</v>
       </c>
@@ -13105,7 +13111,7 @@
       <c r="C8" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="41" t="b">
+      <c r="D8" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -13124,7 +13130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -13134,7 +13140,7 @@
       <c r="C9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="41" t="b">
+      <c r="D9" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -13153,10 +13159,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
-        <f>18*2</f>
-        <v>36</v>
+        <f>18*3</f>
+        <v>54</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>11</v>
@@ -13164,7 +13170,7 @@
       <c r="C10" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="41" t="b">
+      <c r="D10" s="35" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -13172,18 +13178,18 @@
         <v>14</v>
       </c>
       <c r="L10" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>0</v>
+        <v>113.98</v>
       </c>
       <c r="N10" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>86.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>2.99</v>
       </c>
@@ -13201,128 +13207,264 @@
         <v>48</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM([budżet])</f>
-        <v>7824.04</v>
+        <f>SUM(Budżet713436[budżet])</f>
+        <v>8363.0400000000009</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM([wydatki])</f>
-        <v>5345.0199999999995</v>
+        <f>SUM(Budżet713436[wydatki])</f>
+        <v>6683.53</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM([pozostało])</f>
-        <v>2479.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <f>SUM(Budżet713436[pozostało])</f>
+        <v>1679.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="1"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="K13" t="s">
         <v>49</v>
       </c>
       <c r="L13" s="2">
         <f>SUM(Przychody8[kwota])-Budżet713436[[#Totals],[budżet]]</f>
-        <v>1460.71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3">
+        <v>921.70999999999913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>60.16</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>84.53</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>19.5</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>51</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>51</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>346.98</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>120.2</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>106.55</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>25.81</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>439</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>11.98</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
     </row>
   </sheetData>
@@ -13337,7 +13479,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/db/budget_2023.xlsx
+++ b/src/db/budget_2023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVE\Desktop\simple-budget\src\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F416D-534B-4C54-AB7C-6093D6D854A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="22149" windowHeight="12454" tabRatio="596" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -31,9 +25,9 @@
     <definedName name="Budżet7">#REF!</definedName>
     <definedName name="stawka">III!$H$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,13 +44,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="281">
   <si>
     <t>data</t>
   </si>
@@ -906,17 +900,26 @@
   </si>
   <si>
     <t>mikrofon</t>
+  </si>
+  <si>
+    <t>ksiązka magia</t>
+  </si>
+  <si>
+    <t>media expert pakiet</t>
+  </si>
+  <si>
+    <t>mata i hantelki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,96 +1171,6 @@
   </cellStyles>
   <dxfs count="193">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -1265,152 +1178,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2391,27 +2158,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2536,23 +2282,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2576,6 +2305,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2706,6 +2445,144 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2734,6 +2611,62 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -2788,6 +2721,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -2997,6 +2940,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
@@ -3241,6 +3194,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3430,6 +3393,16 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3642,6 +3615,16 @@
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -3854,6 +3837,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
@@ -4045,6 +4038,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4074,46 +4077,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Przychody1" displayName="Przychody1" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0,00 zł"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="kwota" dataDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="0,00 zł"/>
+    <tableColumn id="5" name="kwota" dataDxfId="191"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Przychody4" displayName="Przychody4" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="kwota" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="144"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Budżet4" displayName="Budżet4" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
-      <totalsRowFormula>SUM(Budżet4[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>SUMIF(Wydatki4[kategoria],Budżet4[[#This Row],[kategoria]],Wydatki4[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet4[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>Budżet4[[#This Row],[budżet]]-Budżet4[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet4[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4121,14 +4124,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="141" tableBorderDxfId="140">
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Wydatki4" displayName="Wydatki4" ref="A1:E40" totalsRowShown="0" headerRowDxfId="137" tableBorderDxfId="136">
+  <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="razy" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="kwota" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="kategoria" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="na co" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="przyjemności" dataDxfId="135">
+    <tableColumn id="1" name="razy" dataDxfId="135"/>
+    <tableColumn id="2" name="kwota" dataDxfId="134"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="133"/>
+    <tableColumn id="4" name="na co" dataDxfId="132"/>
+    <tableColumn id="5" name="przyjemności" dataDxfId="131">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4137,15 +4140,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132">
-  <autoFilter ref="A1:F45" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Wydatki5" displayName="Wydatki5" ref="A1:F45" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128" tableBorderDxfId="127">
+  <autoFilter ref="A1:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="razy" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="kwota" dataDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="kategoria" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="na co" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="gdzie" dataDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="przyjemności" dataDxfId="126">
+    <tableColumn id="1" name="razy" dataDxfId="126"/>
+    <tableColumn id="2" name="kwota" dataDxfId="125"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="124"/>
+    <tableColumn id="4" name="na co" dataDxfId="123"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="122"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="121">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4154,33 +4157,33 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
-  <autoFilter ref="H1:K5" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Przychody5" displayName="Przychody5" ref="H1:K5" totalsRowShown="0">
+  <autoFilter ref="H1:K5"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="kwota" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="120"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
-  <autoFilter ref="M1:P10" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Budżet5" displayName="Budżet5" ref="M1:P11" totalsRowCount="1">
+  <autoFilter ref="M1:P10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
-      <totalsRowFormula>SUM(Budżet5[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>SUMIF(Wydatki5[kategoria],Budżet5[[#This Row],[kategoria]],Wydatki5[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet5[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>Budżet5[[#This Row],[budżet]]-Budżet5[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet5[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4188,27 +4191,27 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Przychody6" displayName="Przychody6" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="kwota" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="112"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
-  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Wydatki6" displayName="Wydatki6" ref="A1:E43" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
+  <autoFilter ref="A1:E43"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="data" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="kwota" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="kategoria" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="na co" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="przyjemności" dataDxfId="110">
+    <tableColumn id="1" name="data" dataDxfId="108"/>
+    <tableColumn id="2" name="kwota" dataDxfId="107"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="106"/>
+    <tableColumn id="4" name="na co" dataDxfId="105"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="104">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4217,49 +4220,49 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
-  <autoFilter ref="L1:P10" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Budżet6" displayName="Budżet6" ref="L1:P11" totalsRowCount="1">
+  <autoFilter ref="L1:P10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
-      <totalsRowFormula>SUM(Budżet6[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>SUMIF(Wydatki6[kategoria],Budżet6[[#This Row],[kategoria]],Wydatki6[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet6[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>Budżet6[[#This Row],[budżet]]-Budżet6[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet6[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Kolumna1" dataDxfId="103"/>
+    <tableColumn id="5" name="Kolumna1" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Przychody7" displayName="Przychody7" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="kwota" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="95"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="191" tableBorderDxfId="190">
-  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Wydatki1" displayName="Wydatki1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="190" tableBorderDxfId="189">
+  <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="data" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="kwota" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="kategoria" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="na co" dataDxfId="186"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="przyjemności" dataDxfId="185">
+    <tableColumn id="1" name="data" dataDxfId="188"/>
+    <tableColumn id="2" name="kwota" dataDxfId="187"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="186"/>
+    <tableColumn id="4" name="na co" dataDxfId="185"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="184">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4268,14 +4271,14 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
-  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Wydatki7" displayName="Wydatki7" ref="A1:E49" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="A1:E49"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="data" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="kwota" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="kategoria" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="na co" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="przyjemności" dataDxfId="94">
+    <tableColumn id="1" name="data" dataDxfId="91"/>
+    <tableColumn id="2" name="kwota" dataDxfId="90"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="89"/>
+    <tableColumn id="4" name="na co" dataDxfId="88"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="87">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4284,20 +4287,20 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Budżet71" displayName="Budżet71" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
-      <totalsRowFormula>SUM(Budżet71[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>SUMIF(Wydatki7[kategoria],Budżet71[[#This Row],[kategoria]],Wydatki7[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet71[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>Budżet71[[#This Row],[budżet]]-Budżet71[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet71[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4305,26 +4308,26 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Przychody8" displayName="Przychody8" ref="F1:I5" totalsRowShown="0">
-  <autoFilter ref="F1:I5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Przychody8" displayName="Przychody8" ref="F1:I5" totalsRowShown="0">
+  <autoFilter ref="F1:I5"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="kwota" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="79"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Wydatki8" displayName="Wydatki8" ref="A1:D62" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
-  <autoFilter ref="A1:D62" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Wydatki8" displayName="Wydatki8" ref="A1:D62" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
+  <autoFilter ref="A1:D62"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="kwota" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="kategoria" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="na co" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="przyjemności" dataDxfId="80">
+    <tableColumn id="2" name="kwota" dataDxfId="75"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="74"/>
+    <tableColumn id="4" name="na co" dataDxfId="73"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="72">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4333,20 +4336,20 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
-  <autoFilter ref="K1:N10" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Budżet7134" displayName="Budżet7134" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
-      <totalsRowFormula>SUM(Budżet7134[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>SUMIF(Wydatki8[kategoria],Budżet7134[[#This Row],[kategoria]],Wydatki8[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet7134[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>Budżet7134[[#This Row],[budżet]]-Budżet7134[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet7134[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4354,26 +4357,26 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Przychody9" displayName="Przychody9" ref="F1:I3" totalsRowShown="0">
-  <autoFilter ref="F1:I3" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Przychody9" displayName="Przychody9" ref="F1:I3" totalsRowShown="0">
+  <autoFilter ref="F1:I3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="kwota" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="64"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Wydatki9" displayName="Wydatki9" ref="A1:D24" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Wydatki9" displayName="Wydatki9" ref="A1:D30" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
+  <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="kwota" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="kategoria" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="na co" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="przyjemności" dataDxfId="12">
+    <tableColumn id="2" name="kwota" dataDxfId="61"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="60"/>
+    <tableColumn id="4" name="na co" dataDxfId="59"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="58">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4382,20 +4385,20 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Budżet713436" displayName="Budżet713436" ref="K1:N11" totalsRowCount="1">
-  <autoFilter ref="K1:N10" xr:uid="{00000000-0009-0000-0100-000023000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Budżet713436" displayName="Budżet713436" ref="K1:N11" totalsRowCount="1">
+  <autoFilter ref="K1:N10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="11">
-      <totalsRowFormula>SUM(Budżet713436[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="2">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="10">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet713436[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="9">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="0">
       <calculatedColumnFormula>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet713436[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4403,51 +4406,51 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Przychody10" displayName="Przychody10" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="kwota" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="54"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Wydatki10" displayName="Wydatki10" ref="A1:G3" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="data" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="kwota" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="kategoria" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="na co" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="gdzie" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="przyjemności" dataDxfId="60">
+    <tableColumn id="1" name="data" dataDxfId="50"/>
+    <tableColumn id="2" name="kwota" dataDxfId="49"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="48"/>
+    <tableColumn id="4" name="na co" dataDxfId="47"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="46"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="45">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="stałe" dataDxfId="59"/>
+    <tableColumn id="7" name="stałe" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Budżet1" displayName="Budżet1" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
-      <totalsRowFormula>SUM(Budżet1[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="183" totalsRowDxfId="182">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="180">
       <calculatedColumnFormula>SUMIF(Wydatki1[kategoria],Budżet1[[#This Row],[kategoria]],Wydatki1[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet1[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="178">
       <calculatedColumnFormula>Budżet1[[#This Row],[budżet]]-Budżet1[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet1[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4455,94 +4458,94 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Przychody11" displayName="Przychody11" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="kwota" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="43"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Wydatki11" displayName="Wydatki11" ref="A1:G3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="data" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="kwota" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="kategoria" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="na co" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="gdzie" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="przyjemności" dataDxfId="49">
+    <tableColumn id="1" name="data" dataDxfId="39"/>
+    <tableColumn id="2" name="kwota" dataDxfId="38"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="37"/>
+    <tableColumn id="4" name="na co" dataDxfId="36"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="35"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="34">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="stałe" dataDxfId="48"/>
+    <tableColumn id="7" name="stałe" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
-  <autoFilter ref="I1:L3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Przychody12" displayName="Przychody12" ref="I1:L3" totalsRowShown="0">
+  <autoFilter ref="I1:L3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="kwota" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="32"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Wydatki12" displayName="Wydatki12" ref="A1:G3" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="data" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="kwota" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="kategoria" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="na co" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="gdzie" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="przyjemności" dataDxfId="38">
+    <tableColumn id="1" name="data" dataDxfId="28"/>
+    <tableColumn id="2" name="kwota" dataDxfId="27"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="26"/>
+    <tableColumn id="4" name="na co" dataDxfId="25"/>
+    <tableColumn id="5" name="gdzie" dataDxfId="24"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="23">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="stałe" dataDxfId="37"/>
+    <tableColumn id="7" name="stałe" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Rok" displayName="Rok" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="miesiąc"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="Dochód" dataDxfId="36">
+    <tableColumn id="1" name="miesiąc"/>
+    <tableColumn id="5" name="Dochód" dataDxfId="21">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Wydatki" dataDxfId="35">
+    <tableColumn id="4" name="Wydatki" dataDxfId="20">
       <calculatedColumnFormula>SUM(Wydatki10[kwota])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="Wydatki konieczne" dataDxfId="34" dataCellStyle="Procentowy">
+    <tableColumn id="6" name="Wydatki konieczne" dataDxfId="19" dataCellStyle="Procentowy">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(Wydatki10[kwota],NOT(Wydatki10[przyjemności])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2100-000009000000}" name="Wydatki konieczne [%]" dataDxfId="33" dataCellStyle="Procentowy">
+    <tableColumn id="9" name="Wydatki konieczne [%]" dataDxfId="18" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Wydatki przyjemności" dataDxfId="32" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności" dataDxfId="17" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(_xlfn._xlws.FILTER(#REF!,#REF!))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-2100-00000A000000}" name="Wydatki przyjemności [%]" dataDxfId="31" dataCellStyle="Procentowy">
+    <tableColumn id="10" name="Wydatki przyjemności [%]" dataDxfId="16" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Oszczędności" dataDxfId="30">
+    <tableColumn id="2" name="Oszczędności" dataDxfId="15">
       <calculatedColumnFormula>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Oszczędności [%]" dataDxfId="29" dataCellStyle="Procentowy">
+    <tableColumn id="3" name="Oszczędności [%]" dataDxfId="14" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4551,32 +4554,32 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A15:I16" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Okres" displayName="Okres" ref="A15:I16" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A15:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="okres" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Dochód" dataDxfId="25">
+    <tableColumn id="1" name="okres" dataDxfId="11"/>
+    <tableColumn id="2" name="Dochód" dataDxfId="10">
       <calculatedColumnFormula>SUM(Rok[Dochód])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Wydatki" dataDxfId="24">
+    <tableColumn id="3" name="Wydatki" dataDxfId="9">
       <calculatedColumnFormula>SUM(Rok[Wydatki])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Wydatki konieczne" dataDxfId="23" dataCellStyle="Procentowy">
+    <tableColumn id="4" name="Wydatki konieczne" dataDxfId="8" dataCellStyle="Procentowy">
       <calculatedColumnFormula>SUM(Rok[Wydatki konieczne])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="Wydatki konieczne [%]" dataDxfId="22" dataCellStyle="Procentowy">
+    <tableColumn id="5" name="Wydatki konieczne [%]" dataDxfId="7" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki konieczne]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="Wydatki przyjemności" dataDxfId="21">
+    <tableColumn id="6" name="Wydatki przyjemności" dataDxfId="6">
       <calculatedColumnFormula>SUM(Rok[Wydatki przyjemności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Wydatki przyjemności [%]" dataDxfId="20" dataCellStyle="Procentowy">
+    <tableColumn id="7" name="Wydatki przyjemności [%]" dataDxfId="5" dataCellStyle="Procentowy">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Wydatki]]&gt;0,Okres[[#This Row],[Wydatki przyjemności]]/Okres[[#This Row],[Wydatki]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-2200-000008000000}" name="Oszczędności" dataDxfId="19">
+    <tableColumn id="8" name="Oszczędności" dataDxfId="4">
       <calculatedColumnFormula>SUM(Rok[Oszczędności])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-2200-000009000000}" name="Oszczędności [%]" dataDxfId="18">
+    <tableColumn id="9" name="Oszczędności [%]" dataDxfId="3">
       <calculatedColumnFormula>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4585,47 +4588,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="176">
-  <autoFilter ref="A1:E33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Wydatki2" displayName="Wydatki2" ref="A1:E33" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" tableBorderDxfId="174">
+  <autoFilter ref="A1:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="data" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="kwota" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="kategoria" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="na co" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="przyjemności" dataDxfId="171"/>
+    <tableColumn id="1" name="data" dataDxfId="173"/>
+    <tableColumn id="2" name="kwota" dataDxfId="172"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="171"/>
+    <tableColumn id="4" name="na co" dataDxfId="170"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
-  <autoFilter ref="G1:J4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Przychody2" displayName="Przychody2" ref="G1:J4" totalsRowShown="0">
+  <autoFilter ref="G1:J4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="kwota" dataDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="na/za co"/>
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="168"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Budżet2" displayName="Budżet2" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="168">
-      <totalsRowFormula>SUM(Budżet2[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
       <calculatedColumnFormula>SUMIF(Wydatki2[kategoria],Budżet2[[#This Row],[kategoria]],Wydatki2[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet2[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula>Budżet2[[#This Row],[budżet]]-Budżet2[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet2[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4633,29 +4636,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
-  <autoFilter ref="G1:J3" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Przychody3" displayName="Przychody3" ref="G1:J3" totalsRowShown="0">
+  <autoFilter ref="G1:J3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="kwota" dataDxfId="163">
+    <tableColumn id="1" name="data"/>
+    <tableColumn id="5" name="kwota" dataDxfId="160">
       <calculatedColumnFormula>stawka*G2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="źródło"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="na/za co"/>
+    <tableColumn id="2" name="źródło"/>
+    <tableColumn id="3" name="na/za co"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161" tableBorderDxfId="160">
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Wydatki3" displayName="Wydatki3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158" tableBorderDxfId="157">
+  <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="data" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="kwota" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="kategoria" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="na co" dataDxfId="156"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="przyjemności" dataDxfId="155">
+    <tableColumn id="1" name="data" dataDxfId="156"/>
+    <tableColumn id="2" name="kwota" dataDxfId="155"/>
+    <tableColumn id="3" name="kategoria" dataDxfId="154"/>
+    <tableColumn id="4" name="na co" dataDxfId="153"/>
+    <tableColumn id="6" name="przyjemności" dataDxfId="152">
       <calculatedColumnFormula>FALSE()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4664,20 +4667,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
-  <autoFilter ref="L1:O10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Budżet3" displayName="Budżet3" ref="L1:O11" totalsRowCount="1">
+  <autoFilter ref="L1:O10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="kategoria" totalsRowLabel="SUMA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="budżet" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
-      <totalsRowFormula>SUM(Budżet3[budżet])</totalsRowFormula>
+    <tableColumn id="1" name="kategoria" totalsRowLabel="SUMA"/>
+    <tableColumn id="2" name="budżet" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
+      <totalsRowFormula>SUM([budżet])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="wydatki" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="3" name="wydatki" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>SUMIF(Wydatki3[kategoria],Budżet3[[#This Row],[kategoria]],Wydatki3[kwota])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet3[wydatki])</totalsRowFormula>
+      <totalsRowFormula>SUM([wydatki])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="pozostało" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="4" name="pozostało" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>Budżet3[[#This Row],[budżet]]-Budżet3[[#This Row],[wydatki]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Budżet3[pozostało])</totalsRowFormula>
+      <totalsRowFormula>SUM([pozostało])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4939,14 +4942,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4956,25 +4959,25 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" customWidth="1"/>
+    <col min="5" max="5" width="17.07421875" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" customWidth="1"/>
+    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" customWidth="1"/>
+    <col min="12" max="12" width="14.69140625" customWidth="1"/>
+    <col min="13" max="13" width="16.07421875" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="13.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="L3" t="s">
@@ -5056,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="L5" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="L6" t="s">
         <v>41</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="L7" t="s">
         <v>42</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="L8" t="s">
         <v>45</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="L9" t="s">
         <v>13</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="L10" t="s">
         <v>14</v>
       </c>
@@ -5168,24 +5171,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet1[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet1[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet1[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="L13" t="s">
         <v>49</v>
       </c>
@@ -5196,7 +5199,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O10">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5211,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFE57F97"/>
   </sheetPr>
@@ -5221,16 +5224,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="6" max="6" width="13.84375" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" customWidth="1"/>
+    <col min="10" max="10" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5276,7 +5279,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5297,7 +5300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC986DE"/>
   </sheetPr>
@@ -5307,9 +5310,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5355,7 +5358,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5376,7 +5379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF948CE0"/>
   </sheetPr>
@@ -5386,9 +5389,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5434,7 +5437,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5455,7 +5458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5465,20 +5468,20 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.84375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.07421875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.84375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.4609375" customWidth="1"/>
+    <col min="8" max="8" width="15.53515625" customWidth="1"/>
+    <col min="9" max="9" width="16.84375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>0.338629066780822</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>0.28509230717603812</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>0.14568628826679766</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5825,7 +5828,7 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(Wydatki9[kwota])</f>
-        <v>6683.53</v>
+        <v>7509.699999999998</v>
       </c>
       <c r="D10" s="5" cm="1">
         <f t="array" ref="D10">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],NOT(Wydatki9[przyjemności]),0))</f>
@@ -5833,26 +5836,26 @@
       </c>
       <c r="E10" s="3">
         <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki konieczne]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>0.96204400967752079</v>
-      </c>
-      <c r="F10" s="5">
-        <f>SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
-        <v>253.67999999999998</v>
-      </c>
-      <c r="G10" s="3">
-        <f>IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
-        <v>3.7955990322479288E-2</v>
+        <v>0.85620597360746797</v>
+      </c>
+      <c r="F10" s="5" t="e">
+        <f ca="1">SUM(_xlfn._xlws.FILTER(Wydatki9[kwota],Wydatki9[przyjemności],0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="3" t="e">
+        <f ca="1">IF(Rok[[#This Row],[Wydatki]]&gt;0,Rok[[#This Row],[Wydatki przyjemności]]/Rok[[#This Row],[Wydatki]],0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="2">
         <f>Rok[[#This Row],[Dochód]]-Rok[[#This Row],[Wydatki]]</f>
-        <v>2381.5700000000006</v>
+        <v>1555.4000000000024</v>
       </c>
       <c r="I10" s="3">
         <f>IF(Rok[[#This Row],[Dochód]]&gt;0,Rok[[#This Row],[Oszczędności]]/Rok[[#This Row],[Dochód]],0)</f>
-        <v>0.26271855798612265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.17158111879626284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5963,13 +5966,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -6008,7 +6011,7 @@
       </c>
       <c r="C16" s="12">
         <f>SUM(Rok[Wydatki])</f>
-        <v>68526.399999999994</v>
+        <v>69352.569999999992</v>
       </c>
       <c r="D16" s="13" t="e">
         <f>SUM(Rok[Wydatki konieczne])</f>
@@ -6028,55 +6031,55 @@
       </c>
       <c r="H16" s="12">
         <f>SUM(Rok[Oszczędności])</f>
-        <v>5248.200000000008</v>
+        <v>4422.0300000000097</v>
       </c>
       <c r="I16" s="15">
         <f>IF(Okres[[#This Row],[Dochód]]&gt;0,Okres[[#This Row],[Oszczędności]]/Okres[[#This Row],[Dochód]],0)</f>
-        <v>7.1138305053500897E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.9939735356071187E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="B27"/>
       <c r="C27"/>
     </row>
@@ -6092,7 +6095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF99E5E9"/>
   </sheetPr>
@@ -6102,24 +6105,24 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="4" max="4" width="17.69140625" customWidth="1"/>
+    <col min="6" max="6" width="13.84375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.07421875" customWidth="1"/>
+    <col min="13" max="13" width="12.69140625" customWidth="1"/>
+    <col min="14" max="14" width="12.84375" customWidth="1"/>
+    <col min="15" max="15" width="15.07421875" customWidth="1"/>
+    <col min="16" max="16" width="16.3046875" customWidth="1"/>
+    <col min="17" max="17" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>578.9</v>
@@ -6199,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>92.4</v>
@@ -6239,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1024.56</v>
@@ -6278,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>260</v>
@@ -6310,7 +6313,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>296.02</v>
@@ -6341,7 +6344,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>2085.06</f>
@@ -6374,7 +6377,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>50</v>
@@ -6406,7 +6409,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>200</v>
@@ -6438,7 +6441,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>50</v>
@@ -6470,7 +6473,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>34.61</v>
@@ -6489,21 +6492,21 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet2[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>6179.85</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet2[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>6179.85</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet2[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>127.47</v>
@@ -6519,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>36</v>
@@ -6542,7 +6545,7 @@
         <v>3164.1499999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>132.63999999999999</v>
@@ -6558,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>59.98</v>
@@ -6573,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>8</v>
@@ -6589,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>32.700000000000003</v>
@@ -6604,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>62.1</v>
@@ -6619,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>51.59</v>
@@ -6634,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>62.1</v>
@@ -6649,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>60.91</v>
@@ -6664,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>48.54</v>
@@ -6679,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>132.4</v>
@@ -6694,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>107.42</v>
@@ -6709,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>5.99</v>
@@ -6724,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>70.95</v>
@@ -6739,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27">
         <v>163.29</v>
@@ -6754,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28">
         <v>63.24</v>
@@ -6769,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>94.98</v>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>151</v>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -6814,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>12</v>
@@ -6829,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -6848,7 +6851,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6863,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF7CDEC4"/>
   </sheetPr>
@@ -6873,20 +6876,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.84375" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" customWidth="1"/>
+    <col min="4" max="4" width="14.69140625" customWidth="1"/>
+    <col min="5" max="5" width="15.84375" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" customWidth="1"/>
+    <col min="12" max="12" width="15.4609375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="14.109375" customWidth="1"/>
+    <col min="14" max="15" width="14.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="7"/>
       <c r="B2" s="6">
         <v>1009</v>
@@ -6967,7 +6970,7 @@
         <v>-4747</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -7008,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -7038,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -7068,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>8</v>
@@ -7098,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <f>18*4</f>
@@ -7129,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="6">
         <v>374.72</v>
@@ -7159,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>100</v>
@@ -7189,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7"/>
       <c r="B10" s="6">
         <v>0</v>
@@ -7219,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>75.81</v>
@@ -7238,19 +7241,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet3[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>6338.17</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet3[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>11085.17</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet3[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>-4747</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>19.989999999999998</v>
@@ -7266,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7"/>
       <c r="B13" s="6">
         <v>98.98</v>
@@ -7289,7 +7292,7 @@
         <v>1598.0299999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>231.97</v>
@@ -7305,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>294.79000000000002</v>
@@ -7320,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>109.03</v>
@@ -7336,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>247.5</v>
@@ -7352,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="6">
         <v>78.36</v>
@@ -7368,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>7.99</v>
@@ -7384,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>4800</v>
@@ -7400,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="6">
         <v>89.98</v>
@@ -7416,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="6">
         <v>7.99</v>
@@ -7432,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>80.680000000000007</v>
@@ -7448,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>78</v>
@@ -7464,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="6">
         <v>18</v>
@@ -7480,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>134.37</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>94.69</v>
@@ -7511,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>46.5</v>
@@ -7526,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="6">
         <v>105</v>
@@ -7542,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>110.42</v>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="6">
         <v>2.29</v>
@@ -7610,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>66.569999999999993</v>
@@ -7626,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="6">
         <v>165.95</v>
@@ -7642,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>31.48</v>
@@ -7658,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37">
         <v>65.17</v>
@@ -7674,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="6">
         <v>116.6</v>
@@ -7690,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="6">
         <v>229.32</v>
@@ -7706,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -7725,7 +7728,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7739,7 +7742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF9BD9A4"/>
   </sheetPr>
@@ -7749,23 +7752,23 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.4609375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.07421875" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3046875" customWidth="1"/>
+    <col min="14" max="14" width="14.07421875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.53515625" customWidth="1"/>
+    <col min="17" max="17" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="33" t="s">
         <v>105</v>
       </c>
@@ -7808,7 +7811,7 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>970.21</v>
@@ -7852,7 +7855,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>280</v>
@@ -7897,7 +7900,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>969</v>
@@ -7932,7 +7935,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="32"/>
       <c r="B5" s="25">
         <v>1864</v>
@@ -7966,7 +7969,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="32"/>
       <c r="B6" s="25">
         <v>12</v>
@@ -8000,7 +8003,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>50</v>
@@ -8034,7 +8037,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -8071,7 +8074,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="32"/>
       <c r="B9" s="25">
         <v>357.96</v>
@@ -8105,7 +8108,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>104.81</v>
@@ -8138,7 +8141,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>13.2</v>
@@ -8157,19 +8160,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet4[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7456.38</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet4[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>7456.38</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet4[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>100</v>
@@ -8184,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>42</v>
@@ -8206,7 +8209,7 @@
         <v>2973.4700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>387.9</v>
@@ -8222,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>39.99</v>
@@ -8238,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>72.95</v>
@@ -8254,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>242.43</v>
@@ -8270,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>19.989999999999998</v>
@@ -8285,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -8300,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>34.869999999999997</v>
@@ -8316,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>63.89</v>
@@ -8332,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>300</v>
@@ -8348,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>58.99</v>
@@ -8363,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>330.2</v>
@@ -8378,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>39.520000000000003</v>
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>79.959999999999994</v>
@@ -8410,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>24.99</v>
@@ -8426,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>10.48</v>
@@ -8442,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>63.54</v>
@@ -8458,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <v>47.8</v>
@@ -8473,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>46.48</v>
@@ -8489,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>90.96</v>
@@ -8504,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>194.32</v>
@@ -8520,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>155</v>
@@ -8536,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>65</v>
@@ -8551,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>40.799999999999997</v>
@@ -8566,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>11</v>
@@ -8582,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>56.46</v>
@@ -8598,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>112.68</v>
@@ -8614,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="32"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -8634,7 +8637,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8649,7 +8652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFB7D985"/>
   </sheetPr>
@@ -8659,18 +8662,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.07421875" customWidth="1"/>
+    <col min="14" max="14" width="14.07421875" customWidth="1"/>
+    <col min="15" max="15" width="14.84375" customWidth="1"/>
+    <col min="16" max="16" width="14.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="28"/>
       <c r="B2" s="6">
         <v>631</v>
@@ -8758,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="28"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -8799,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="28"/>
       <c r="B4" s="6">
         <v>1864.02</v>
@@ -8842,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="28"/>
       <c r="B5" s="6">
         <v>12</v>
@@ -8885,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -8922,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="32"/>
       <c r="B7" s="25">
         <v>1344</v>
@@ -8953,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="32"/>
       <c r="B8" s="25">
         <v>320</v>
@@ -8984,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="32"/>
       <c r="B9">
         <v>278.77999999999997</v>
@@ -9016,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="32"/>
       <c r="B10" s="25">
         <v>77</v>
@@ -9048,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="32"/>
       <c r="B11" s="25">
         <v>75.81</v>
@@ -9069,19 +9072,19 @@
         <v>48</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet5[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7305.92</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet5[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>7305.92</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM(Budżet5[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="32"/>
       <c r="B12" s="25">
         <v>55.95</v>
@@ -9099,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="32"/>
       <c r="B13" s="25">
         <v>114.09</v>
@@ -9125,7 +9128,7 @@
         <v>1245.8799999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="32"/>
       <c r="B14" s="25">
         <v>368.2</v>
@@ -9143,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="32"/>
       <c r="B15" s="25">
         <v>49.27</v>
@@ -9162,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="32"/>
       <c r="B16" s="25">
         <v>48.93</v>
@@ -9181,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="32"/>
       <c r="B17" s="25">
         <v>58.23</v>
@@ -9200,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="32"/>
       <c r="B18" s="25">
         <v>7</v>
@@ -9216,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="32"/>
       <c r="B19" s="25">
         <v>17.53</v>
@@ -9235,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="32"/>
       <c r="B20" s="25">
         <v>84.93</v>
@@ -9254,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="32"/>
       <c r="B21" s="25">
         <v>104</v>
@@ -9272,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="32"/>
       <c r="B22" s="25">
         <v>177.99</v>
@@ -9290,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="32"/>
       <c r="B23" s="25">
         <v>19.989999999999998</v>
@@ -9306,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="32"/>
       <c r="B24" s="25">
         <v>104.98</v>
@@ -9325,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="32"/>
       <c r="B25" s="25">
         <v>55.97</v>
@@ -9344,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="32"/>
       <c r="B26" s="25">
         <v>45.49</v>
@@ -9363,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="32"/>
       <c r="B27" s="25">
         <v>60.45</v>
@@ -9382,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="32"/>
       <c r="B28" s="25">
         <v>60.79</v>
@@ -9401,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="32"/>
       <c r="B29" s="25">
         <v>59.99</v>
@@ -9419,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="32"/>
       <c r="B30" s="25">
         <f>19.5*2</f>
@@ -9436,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>40</v>
@@ -9454,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="32"/>
       <c r="B32" s="25">
         <v>15.76</v>
@@ -9473,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="32"/>
       <c r="B33" s="25">
         <v>16</v>
@@ -9491,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="32"/>
       <c r="B34" s="25">
         <v>60</v>
@@ -9509,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="32"/>
       <c r="B35" s="25">
         <v>96.75</v>
@@ -9528,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="32"/>
       <c r="B36" s="25">
         <v>19.5</v>
@@ -9547,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="32"/>
       <c r="B37" s="25">
         <v>108.67</v>
@@ -9565,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="32"/>
       <c r="B38" s="25">
         <v>80</v>
@@ -9583,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="32"/>
       <c r="B39" s="25">
         <v>56</v>
@@ -9602,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="32"/>
       <c r="B40" s="25">
         <v>46.58</v>
@@ -9621,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="32"/>
       <c r="B41" s="25">
         <v>236.99</v>
@@ -9639,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="32"/>
       <c r="B42" s="25">
         <v>5</v>
@@ -9658,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="32"/>
       <c r="B43" s="25">
         <v>10</v>
@@ -9675,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="32"/>
       <c r="B44" s="25">
         <v>77.28</v>
@@ -9693,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="32"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -9716,7 +9719,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9730,7 +9733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
@@ -9740,21 +9743,21 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4609375" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" customWidth="1"/>
+    <col min="12" max="12" width="12.07421875" customWidth="1"/>
+    <col min="13" max="13" width="14.53515625" customWidth="1"/>
+    <col min="14" max="14" width="14.4609375" customWidth="1"/>
+    <col min="15" max="15" width="15.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <v>240</v>
@@ -9842,7 +9845,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>230</v>
@@ -9882,7 +9885,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>194</v>
@@ -9922,7 +9925,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1809</v>
@@ -9953,7 +9956,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <f>2*19.5</f>
@@ -9984,7 +9987,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -10015,7 +10018,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -10045,7 +10048,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
         <f>18*5</f>
@@ -10077,7 +10080,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="26"/>
       <c r="B10" s="25">
         <v>25</v>
@@ -10107,7 +10110,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="26"/>
       <c r="B11" s="25">
         <v>50</v>
@@ -10126,19 +10129,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet6[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>7217.7</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet6[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>9336.7000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet6[pozostało])</f>
+        <f>SUM([pozostało])</f>
         <v>-2119</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>969</v>
@@ -10154,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="26" t="s">
         <v>128</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>2796.2500000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <f>1500+128.32+392.54</f>
@@ -10196,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <v>6.59</v>
@@ -10212,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>139.59</v>
@@ -10228,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>100</v>
@@ -10244,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>11</v>
@@ -10259,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>13.6</v>
@@ -10275,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>53.62</v>
@@ -10291,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>140</v>
@@ -10306,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>8.8800000000000008</v>
@@ -10322,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>27.98</v>
@@ -10338,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>39.979999999999997</v>
@@ -10354,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>199.98</v>
@@ -10370,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>140.96</v>
@@ -10386,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>112.34</v>
@@ -10402,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>21.68</v>
@@ -10418,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>13.39</v>
@@ -10434,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>387.5</v>
@@ -10450,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" s="25">
         <v>111.44</v>
@@ -10466,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>78.47</v>
@@ -10482,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>9.58</v>
@@ -10498,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>136.79</v>
@@ -10513,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>1344</v>
@@ -10529,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>250</v>
@@ -10545,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>13</v>
@@ -10560,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>214.36</v>
@@ -10576,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>8.89</v>
@@ -10591,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <v>140</v>
@@ -10606,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="25">
         <v>107.98</v>
@@ -10622,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="25">
         <v>87.23</v>
@@ -10638,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="25">
         <v>13</v>
@@ -10665,7 +10668,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10679,7 +10682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10689,22 +10692,22 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.84375" customWidth="1"/>
+    <col min="3" max="3" width="12.84375" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" customWidth="1"/>
+    <col min="13" max="13" width="12.07421875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="7"/>
       <c r="B2" s="25">
         <f>1500+128.32+392.54</f>
@@ -10787,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="6">
         <v>260</v>
@@ -10826,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="26"/>
       <c r="B4" s="25">
         <v>859</v>
@@ -10856,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="26"/>
       <c r="B5" s="25">
         <v>1708</v>
@@ -10886,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="26"/>
       <c r="B6" s="25">
         <v>0</v>
@@ -10915,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="26"/>
       <c r="B7" s="25">
         <v>12</v>
@@ -10945,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="25">
         <v>19.989999999999998</v>
@@ -10975,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="26"/>
       <c r="B9" s="25">
         <f>18*6</f>
@@ -11006,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
@@ -11027,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="26"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
@@ -11037,19 +11040,19 @@
         <v>48</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet71[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>8895.2000000000007</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet71[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>8895.2000000000007</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(Budżet71[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="26"/>
       <c r="B12" s="25">
         <v>0</v>
@@ -11064,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="36"/>
       <c r="B13" s="25">
         <v>260</v>
@@ -11086,7 +11089,7 @@
         <v>253.75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="26"/>
       <c r="B14" s="25">
         <v>145</v>
@@ -11101,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="26"/>
       <c r="B15" s="25">
         <f>288.79-B14</f>
@@ -11118,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="26"/>
       <c r="B16" s="25">
         <v>107</v>
@@ -11133,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="26"/>
       <c r="B17" s="25">
         <v>140.99</v>
@@ -11148,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="26"/>
       <c r="B18" s="25">
         <v>41.97</v>
@@ -11164,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="26"/>
       <c r="B19" s="25">
         <v>43.59</v>
@@ -11180,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="26"/>
       <c r="B20" s="25">
         <v>117.5</v>
@@ -11199,7 +11202,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>93.14</v>
@@ -11218,7 +11221,7 @@
         <v>329.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>108</v>
@@ -11233,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>19.5</v>
@@ -11248,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="26"/>
       <c r="B24" s="25">
         <v>3.6</v>
@@ -11264,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" s="25">
         <v>35</v>
@@ -11279,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="25">
         <v>7.99</v>
@@ -11295,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>53</v>
@@ -11310,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>52</v>
@@ -11326,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>5.4</v>
@@ -11341,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="25">
         <v>2.2000000000000002</v>
@@ -11357,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="6">
         <f>19*2</f>
@@ -11373,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="25">
         <v>69</v>
@@ -11388,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="25">
         <v>210.76</v>
@@ -11404,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="25">
         <v>260.76</v>
@@ -11420,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="25">
         <v>47.99</v>
@@ -11436,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="25">
         <v>194.22</v>
@@ -11452,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="25">
         <v>59.34</v>
@@ -11468,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="26"/>
       <c r="B38" s="25">
         <v>91.19</v>
@@ -11484,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="25">
         <v>13.46</v>
@@ -11500,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="25">
         <f>1706.4-329.92</f>
@@ -11516,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="25">
         <v>20</v>
@@ -11531,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="25">
         <v>25.98</v>
@@ -11546,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="25">
         <v>15.39</v>
@@ -11561,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="26"/>
       <c r="B44" s="25">
         <v>20</v>
@@ -11576,7 +11579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="26"/>
       <c r="B45" s="25">
         <v>35</v>
@@ -11591,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="26"/>
       <c r="B46" s="25">
         <v>15.11</v>
@@ -11606,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="26"/>
       <c r="B47" s="25">
         <v>10</v>
@@ -11621,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="26"/>
       <c r="B48" s="25">
         <v>25</v>
@@ -11636,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -11658,12 +11661,12 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D33" r:id="rId1" display="www.cybe.pl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -11676,7 +11679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFCB64E"/>
   </sheetPr>
@@ -11686,20 +11689,20 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53515625" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.69140625" customWidth="1"/>
+    <col min="13" max="13" width="13.84375" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="25">
         <f>1500+128.32+392.54</f>
         <v>2020.86</v>
@@ -11778,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="6">
         <v>260</v>
       </c>
@@ -11817,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="25">
         <v>860</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="25">
         <v>1708</v>
       </c>
@@ -11893,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="25">
         <v>337.06</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="25">
         <v>88.12</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="25">
         <v>12</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="25">
         <f>18*3</f>
         <v>54</v>
@@ -12039,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="38">
         <v>86.98</v>
       </c>
@@ -12057,19 +12060,19 @@
         <v>48</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM(Budżet7134[budżet])</f>
+        <f>SUM([budżet])</f>
         <v>11157.67</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet7134[wydatki])</f>
+        <f>SUM([wydatki])</f>
         <v>11157.669999999998</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet7134[pozostało])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="38">
         <v>80</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="38">
         <v>71.73</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>-1872.92</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="38">
         <v>24.98</v>
       </c>
@@ -12121,7 +12124,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="38">
         <v>100</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="38">
         <v>100</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <f>-329.92+436.05</f>
         <v>106.13</v>
@@ -12166,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="25">
         <f>4.99+1.48+4.89</f>
         <v>11.36</v>
@@ -12182,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>153.91999999999999</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="25">
         <v>19.170000000000002</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="25">
         <v>126.7</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="25">
         <v>94.98</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="25">
         <v>237.46</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="25">
         <v>148.37</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="25">
         <v>40</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="25">
         <v>70</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="25">
         <v>13</v>
       </c>
@@ -12312,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>14</v>
@@ -12324,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="25">
         <v>199.06</v>
       </c>
@@ -12339,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="25">
         <v>139.97999999999999</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="25">
         <v>42.3</v>
       </c>
@@ -12369,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="25">
         <v>40</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="25">
         <v>10</v>
       </c>
@@ -12398,7 +12401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="25">
         <v>87.51</v>
       </c>
@@ -12413,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="25">
         <v>12.5</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="25">
         <v>77.819999999999993</v>
       </c>
@@ -12442,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="25">
         <v>32</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="25">
         <v>120</v>
       </c>
@@ -12471,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="25">
         <v>35</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="25">
         <v>30</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="25">
         <v>19.739999999999998</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="25">
         <v>42.3</v>
       </c>
@@ -12529,7 +12532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="25">
         <v>11.4</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="25">
         <v>130.68</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="25">
         <v>20</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="25">
         <v>110.02</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="25">
         <v>484.84</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="25">
         <v>438</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="25">
         <v>1440</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="25">
         <v>20.61</v>
       </c>
@@ -12647,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="25">
         <v>2.99</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="25">
         <v>73.03</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="25">
         <v>48.96</v>
       </c>
@@ -12691,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="25">
         <v>26.75</v>
       </c>
@@ -12706,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="25">
         <f>87.88-70</f>
         <v>17.879999999999995</v>
@@ -12721,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="25">
         <v>70</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="25">
         <v>339.99</v>
       </c>
@@ -12751,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="25">
         <v>13.59</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="25">
         <v>63.62</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="25">
         <v>47.8</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="25">
         <v>96.49</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
@@ -12831,7 +12834,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12846,34 +12849,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFF38D6D"/>
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.765625" customWidth="1"/>
+    <col min="4" max="4" width="20.3046875" customWidth="1"/>
+    <col min="5" max="5" width="8.3046875" customWidth="1"/>
+    <col min="6" max="6" width="5.4609375" customWidth="1"/>
+    <col min="7" max="7" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.84375" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3046875" customWidth="1"/>
+    <col min="12" max="12" width="14.4609375" customWidth="1"/>
+    <col min="13" max="13" width="18.07421875" customWidth="1"/>
+    <col min="14" max="14" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="25">
         <f>1500+128.32+392.54</f>
         <v>2020.86</v>
@@ -12951,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="6">
         <v>260</v>
       </c>
@@ -12975,14 +12978,14 @@
       </c>
       <c r="M3" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>73.5</v>
+        <v>127.5</v>
       </c>
       <c r="N3" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>126.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="25">
         <v>860</v>
       </c>
@@ -13000,18 +13003,18 @@
         <v>9</v>
       </c>
       <c r="L4" s="2">
-        <v>2108.98</v>
+        <v>2020.86</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>2108.98</v>
+        <v>2020.86</v>
       </c>
       <c r="N4" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="25">
         <v>1708</v>
       </c>
@@ -13033,14 +13036,14 @@
       </c>
       <c r="M5" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>662.81</v>
+        <v>1094.1599999999999</v>
       </c>
       <c r="N5" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>837.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>405.84000000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="25">
         <v>337.06</v>
       </c>
@@ -13069,10 +13072,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>88.12</v>
-      </c>
+    <row r="7" spans="1:14">
+      <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
@@ -13094,14 +13095,14 @@
       </c>
       <c r="M7" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>120.2</v>
+        <v>497.40999999999997</v>
       </c>
       <c r="N7" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>379.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.5900000000000318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="25">
         <v>12</v>
       </c>
@@ -13119,18 +13120,18 @@
         <v>45</v>
       </c>
       <c r="L8" s="2">
-        <v>100</v>
+        <v>51.73</v>
       </c>
       <c r="M8" s="2">
         <f>SUMIF(Wydatki9[kategoria],Budżet713436[[#This Row],[kategoria]],Wydatki9[kwota])</f>
-        <v>0</v>
+        <v>51.73</v>
       </c>
       <c r="N8" s="2">
         <f>Budżet713436[[#This Row],[budżet]]-Budżet713436[[#This Row],[wydatki]]</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="25">
         <v>19.989999999999998</v>
       </c>
@@ -13159,10 +13160,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="25">
-        <f>18*3</f>
-        <v>54</v>
+        <f>18*6</f>
+        <v>108</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>11</v>
@@ -13189,7 +13190,7 @@
         <v>86.02</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="25">
         <v>2.99</v>
       </c>
@@ -13207,25 +13208,25 @@
         <v>48</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM(Budżet713436[budżet])</f>
-        <v>8363.0400000000009</v>
+        <f>SUM([budżet])</f>
+        <v>8226.65</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(Budżet713436[wydatki])</f>
-        <v>6683.53</v>
+        <f>SUM([wydatki])</f>
+        <v>7509.6999999999989</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(Budżet713436[pozostało])</f>
-        <v>1679.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM([pozostało])</f>
+        <v>716.95000000000016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="25">
         <v>3.8</v>
       </c>
@@ -13244,10 +13245,10 @@
       </c>
       <c r="L13" s="2">
         <f>SUM(Przychody8[kwota])-Budżet713436[[#Totals],[budżet]]</f>
-        <v>921.70999999999913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1058.1000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="25">
         <v>60.16</v>
       </c>
@@ -13262,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="25">
         <v>84.53</v>
       </c>
@@ -13277,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="25">
         <v>19.5</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="25">
         <v>51</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="25">
         <v>51</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="25">
         <v>346.98</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="25">
         <v>120.2</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="25">
         <v>106.55</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="25">
         <v>25.81</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="25">
         <v>439</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="25">
         <v>11.98</v>
       </c>
@@ -13407,64 +13408,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
+      <c r="A25" s="25">
+        <v>377.21</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="25">
+        <v>51.73</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25">
+        <v>226.36</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25">
+        <v>49.99</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25">
+        <v>155</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" s="1"/>
     </row>
   </sheetData>
@@ -13479,7 +13543,7 @@
         <color rgb="FFCFF1CB"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
